--- a/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
+++ b/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="7875"/>
+    <workbookView windowWidth="19410" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="189">
   <si>
     <t>NOME</t>
   </si>
@@ -58,7 +58,7 @@
     <t>CATEGORIA</t>
   </si>
   <si>
-    <t>SUB CAT</t>
+    <t>SUB_CAT</t>
   </si>
   <si>
     <t>preco_1</t>
@@ -82,7 +82,10 @@
     <t>Açai Tradicional</t>
   </si>
   <si>
-    <t xml:space="preserve">Açaí </t>
+    <t>Açai e Pitaya</t>
+  </si>
+  <si>
+    <t>Açai.jpg</t>
   </si>
   <si>
     <t>Açaí e Pitaya</t>
@@ -91,22 +94,28 @@
     <t xml:space="preserve">Morango </t>
   </si>
   <si>
-    <t>Açai e Pitaya</t>
+    <t>Açai (1).jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Banana </t>
   </si>
   <si>
-    <t>carne seca e queijo coalho</t>
+    <t>Carne seca e queijo coalho</t>
   </si>
   <si>
     <t>Tapioca</t>
   </si>
   <si>
+    <t>tapioca-carne-seca.png | Tapiocas (2).jpg |  Tapiocas (8).jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Granola </t>
   </si>
   <si>
-    <t>coco e leite condensado</t>
+    <t>Coco e leite condensado</t>
+  </si>
+  <si>
+    <t>Tapiocas (3).jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Proteinato </t>
@@ -157,12 +166,18 @@
     <t>queijo minas</t>
   </si>
   <si>
+    <t>Tapiocas (7).jpg</t>
+  </si>
+  <si>
     <t>Milho</t>
   </si>
   <si>
     <t>Simples</t>
   </si>
   <si>
+    <t>Tapiocas (1).jpg | Tapiocas (3).jpg</t>
+  </si>
+  <si>
     <t>Passas</t>
   </si>
   <si>
@@ -172,15 +187,24 @@
     <t>Crepe</t>
   </si>
   <si>
+    <t>crepe.png | Crepe 2.jpg</t>
+  </si>
+  <si>
     <t>Palmito</t>
   </si>
   <si>
     <t>Carne Seca com Queijo Coalho</t>
   </si>
   <si>
+    <t>crepe.png | Crepe 1.jpg</t>
+  </si>
+  <si>
     <t>Frango, Palmito e Requeijão</t>
   </si>
   <si>
+    <t>crepe.png | Crepe 0.jpg</t>
+  </si>
+  <si>
     <t>Peito de Peru com Queijo Minas</t>
   </si>
   <si>
@@ -190,12 +214,21 @@
     <t>Omelete</t>
   </si>
   <si>
-    <t>Peito de Peru com Q. Minas</t>
+    <t>omelete.png | omelete-carne-seca-c-quiejo.png</t>
+  </si>
+  <si>
+    <t>omelete.png | omelete-frango-c-queijo-minas.png</t>
+  </si>
+  <si>
+    <t>omelete.png</t>
   </si>
   <si>
     <t>Queijo Minas</t>
   </si>
   <si>
+    <t>omelete-frango-c-queijo-minas.png | omelete.png</t>
+  </si>
+  <si>
     <t>Tomate e Cebola</t>
   </si>
   <si>
@@ -205,12 +238,18 @@
     <t>Cuscuz de Milho</t>
   </si>
   <si>
+    <t>Cuscuz (1).jpg | Cuscuz (4).jpg</t>
+  </si>
+  <si>
     <t>Hamburguer</t>
   </si>
   <si>
     <t>Pão e Carne</t>
   </si>
   <si>
+    <t>hamburger.png</t>
+  </si>
+  <si>
     <t>CheeseBurguer</t>
   </si>
   <si>
@@ -254,6 +293,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Città</t>
     </r>
     <r>
@@ -381,7 +425,7 @@
     <t>Cafeteria</t>
   </si>
   <si>
-    <t>Café Expresso*</t>
+    <t>Café Expresso</t>
   </si>
   <si>
     <t>Cafézinho</t>
@@ -596,13 +640,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,66 +689,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -726,6 +710,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -733,9 +771,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,7 +787,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,38 +818,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,54 +859,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -882,7 +871,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,25 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,31 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,30 +1021,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1065,46 +1102,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1151,26 +1148,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,11 +1189,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,15 +1201,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,159 +1219,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1415,7 +1412,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,19 +1421,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,82 +1436,61 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="10" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1873,24 +1843,26 @@
   <sheetPr/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="16.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="49.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="22.75" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="5" customWidth="1"/>
     <col min="11" max="11" width="17.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1903,22 +1875,22 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1926,2393 +1898,2443 @@
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11">
         <v>17</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>22</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="I2" s="27" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="29">
+      <c r="J2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>17</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>22</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="I3" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="28" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="29">
+      <c r="I3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11">
         <v>26</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="I4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="30">
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
         <v>22</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="E5" s="11"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11">
         <v>13</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="I6" s="5" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="33">
+      <c r="I6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
         <v>23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="I7" s="5" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="33">
+      <c r="J7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11">
         <v>20</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="I8" s="5" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="33">
+      <c r="I8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
         <v>26</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="5" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="33">
+      <c r="I9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11">
         <v>24</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="19"/>
-      <c r="I10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="33">
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11">
         <v>20</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="19"/>
-      <c r="I11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="32" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="33">
+      <c r="J11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
         <v>20</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="19"/>
-      <c r="I12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="33">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
         <v>12</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="19"/>
-      <c r="I13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="33">
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
         <v>28</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="19"/>
-      <c r="I14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="33">
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12">
+        <v>47</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11">
         <v>28</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="19"/>
-      <c r="K15" s="29"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12">
+        <v>49</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11">
         <v>27</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11">
         <v>28</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12">
+      <c r="C18" s="10"/>
+      <c r="D18" s="11">
         <v>25</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11">
         <v>28</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12">
+        <v>51</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11">
         <v>28</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12">
+        <v>52</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11">
         <v>21</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12">
+        <v>57</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11">
         <v>24</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11">
         <v>21</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11">
         <v>18</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12">
+        <v>40</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11">
         <v>14</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12">
+        <v>63</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11">
         <v>13</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" ht="30" spans="1:7">
+      <c r="E26" s="18"/>
+      <c r="F26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
         <v>17</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" ht="60" spans="1:7">
+      <c r="E27" s="18"/>
+      <c r="F27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" ht="30" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12">
+        <v>68</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11">
         <v>19</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" ht="45" spans="1:7">
+      <c r="E28" s="18"/>
+      <c r="F28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" ht="30" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12">
+        <v>70</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
         <v>19</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" ht="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12">
+        <v>72</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11">
         <v>19</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" ht="45" spans="1:7">
+      <c r="E30" s="18"/>
+      <c r="F30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" ht="30" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12">
+        <v>74</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11">
         <v>20</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" ht="60" spans="1:7">
+      <c r="E31" s="18"/>
+      <c r="F31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" ht="45" spans="1:7">
       <c r="A32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11">
         <v>20</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" ht="45" spans="1:7">
+      <c r="E32" s="18"/>
+      <c r="F32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" ht="30" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12">
+        <v>78</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11">
         <v>20</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" ht="75" spans="1:7">
-      <c r="A34" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12">
+      <c r="E33" s="18"/>
+      <c r="F33" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" ht="45" spans="1:7">
+      <c r="A34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11">
         <v>25</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" ht="90" spans="1:7">
+      <c r="E34" s="18"/>
+      <c r="F34" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" ht="60" spans="1:7">
       <c r="A35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12">
+        <v>82</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11">
         <v>23</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12">
+        <v>84</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11">
         <v>13</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12">
+        <v>86</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
         <v>15</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="12">
+        <v>87</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11">
         <v>28</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12">
+        <v>88</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11">
         <v>12</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="11">
         <v>14</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12">
+        <v>90</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11">
         <v>18.9</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="19"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12">
+        <v>92</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11">
         <v>28.9</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="19"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12">
+        <v>93</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11">
         <v>12</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="19"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12">
+        <v>94</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11">
         <v>4</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="19"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12">
+        <v>95</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11">
         <v>9</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="19"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="12">
+        <v>96</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="11">
         <v>25</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="19"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="12">
+        <v>99</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="11">
         <v>22</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="19"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" ht="45" spans="1:7">
       <c r="A48" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="12">
+        <v>100</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="11">
         <v>24</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" ht="75" spans="1:7">
+      <c r="E48" s="18"/>
+      <c r="F48" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" ht="45" spans="1:7">
       <c r="A49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="12">
+        <v>103</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="11">
         <v>42</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" ht="45" spans="1:7">
+      <c r="E49" s="18"/>
+      <c r="F49" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" ht="30" spans="1:7">
       <c r="A50" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="12">
+        <v>105</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="11">
         <v>30</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" ht="45" spans="1:7">
+      <c r="E50" s="18"/>
+      <c r="F50" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" ht="30" spans="1:7">
       <c r="A51" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="12">
+        <v>107</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="11">
         <v>27</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" ht="45" spans="1:7">
+      <c r="E51" s="18"/>
+      <c r="F51" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" ht="30" spans="1:7">
       <c r="A52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="12">
+        <v>109</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="11">
         <v>16</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="19"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" ht="30" spans="1:7">
       <c r="A53" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="12">
+        <v>111</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="11">
         <v>25</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" ht="45" spans="1:7">
+      <c r="E53" s="18"/>
+      <c r="F53" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" ht="30" spans="1:7">
       <c r="A54" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="12">
+        <v>113</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="11">
         <v>16</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="24" t="s">
+      <c r="E54" s="18"/>
+      <c r="F54" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" ht="45" spans="1:7">
+      <c r="A55" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" ht="75" spans="1:7">
-      <c r="A55" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>19</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="19"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="12">
+        <v>117</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11">
         <v>8</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="19"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="12">
+        <v>119</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11">
         <v>8</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="19"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="12">
+        <v>120</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11">
         <v>4</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="19"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="12">
+        <v>121</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11">
         <v>12</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="19"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="12">
+        <v>122</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11">
         <v>12</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="19"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="12">
+        <v>123</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11">
         <v>8</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="19"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="12">
+        <v>124</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11">
         <v>8</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="19"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="12">
+        <v>125</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11">
         <v>10</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="19"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="12">
+        <v>126</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11">
         <v>8</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="19"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="12">
+        <v>127</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11">
         <v>8</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="12">
+        <v>128</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11">
         <v>4.5</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="19"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="12">
+        <v>129</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11">
         <v>5</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="19"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="12">
+        <v>130</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11">
         <v>9</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="19"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="12">
+        <v>132</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11">
         <v>8</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="12">
+        <v>133</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11">
         <v>5.5</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="19"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="12">
+        <v>134</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11">
         <v>5</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="19"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="12">
+        <v>135</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11">
         <v>12</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="19"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="12">
+        <v>136</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11">
         <v>10</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="19"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="12">
+        <v>137</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11">
         <v>4</v>
       </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="19"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="12">
+        <v>138</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11">
         <v>8</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="19"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="12">
+        <v>139</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11">
         <v>8</v>
       </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="19"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="12">
+        <v>140</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11">
         <v>7</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="19"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="12">
+        <v>141</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11">
         <v>15</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="19"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="12">
+        <v>142</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11">
         <v>8</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="19"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="12">
+        <v>143</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11">
         <v>6.5</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="19"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="12">
+        <v>144</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="11">
         <v>14</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>17</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="12">
+        <v>146</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="11">
         <v>14</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <v>17</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="12">
+        <v>147</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="11">
         <v>15</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="11">
         <v>18</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="12">
+        <v>148</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="11">
         <v>15</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="11">
         <v>18</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="17"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="12">
+        <v>149</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="11">
         <v>19</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="11">
         <v>23</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="12">
+        <v>150</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="11">
         <v>17</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="11">
         <v>21</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="12">
+        <v>151</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="11">
         <v>14</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="11">
         <v>17</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="12">
+        <v>152</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="11">
         <v>14</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="11">
         <v>17</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="12">
+        <v>153</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="11">
         <v>19</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="11">
         <v>23</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="12">
+        <v>154</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="11">
         <v>19</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="11">
         <v>25</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="12">
+        <v>155</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="11">
         <v>19</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <v>25</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="12">
+        <v>156</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="11">
         <v>15</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="11">
         <v>18</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="12">
+        <v>157</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="11">
         <v>15</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="11">
         <v>18</v>
       </c>
-      <c r="F93" s="23"/>
-      <c r="G93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="12">
+        <v>158</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="11">
         <v>15</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="11">
         <v>18</v>
       </c>
-      <c r="F94" s="23"/>
-      <c r="G94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="12">
+        <v>159</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="11">
         <v>12</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="11">
         <v>15</v>
       </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="12">
+        <v>160</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" s="11">
         <v>15</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="11">
         <v>18</v>
       </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="12">
+        <v>161</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="11">
         <v>19</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="11">
         <v>23</v>
       </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="12">
+        <v>162</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="11">
         <v>14</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="11">
         <v>17</v>
       </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="12">
+        <v>163</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="11">
         <v>15</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="11">
         <v>18</v>
       </c>
-      <c r="F99" s="23"/>
-      <c r="G99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="12">
+        <v>164</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="11">
         <v>14</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="11">
         <v>17</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="12">
+        <v>165</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="11">
         <v>16</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="11">
         <v>19</v>
       </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="17"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="12">
+        <v>166</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="11">
         <v>16</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="11">
         <v>19</v>
       </c>
-      <c r="F102" s="23"/>
-      <c r="G102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="17"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="12">
+        <v>167</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="11">
         <v>15</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E103" s="11">
         <v>18</v>
       </c>
-      <c r="F103" s="23"/>
-      <c r="G103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="17"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="12">
+        <v>168</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="11">
         <v>14</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="11">
         <v>17</v>
       </c>
-      <c r="F104" s="23"/>
-      <c r="G104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="17"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="12">
+        <v>169</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="11">
         <v>14</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="11">
         <v>17</v>
       </c>
-      <c r="F105" s="23"/>
-      <c r="G105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="17"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" s="12">
+        <v>170</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="11">
         <v>14</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="11">
         <v>17</v>
       </c>
-      <c r="F106" s="23"/>
-      <c r="G106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="17"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="12">
+        <v>171</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="11">
         <v>14</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="11">
         <v>17</v>
       </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="17"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="12">
+        <v>172</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="11">
         <v>14</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="11">
         <v>17</v>
       </c>
-      <c r="F108" s="23"/>
-      <c r="G108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="12">
+        <v>173</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="11">
         <v>15</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="11">
         <v>18</v>
       </c>
-      <c r="F109" s="23"/>
-      <c r="G109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D110" s="12">
+        <v>174</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="11">
         <v>15</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="11">
         <v>18</v>
       </c>
-      <c r="F110" s="23"/>
-      <c r="G110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="12">
+        <v>175</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="11">
         <v>14</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="11">
         <v>17</v>
       </c>
-      <c r="F111" s="23"/>
-      <c r="G111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="17"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="12">
+        <v>176</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="11">
         <v>14</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="11">
         <v>17</v>
       </c>
-      <c r="F112" s="23"/>
-      <c r="G112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="17"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="12">
+        <v>177</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="11">
         <v>17</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="11">
         <v>22</v>
       </c>
-      <c r="F113" s="23"/>
-      <c r="G113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="17"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="12">
+        <v>178</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="11">
         <v>15</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="11">
         <v>18</v>
       </c>
-      <c r="F114" s="23"/>
-      <c r="G114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="12">
+        <v>179</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="11">
         <v>12</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="11">
         <v>16</v>
       </c>
-      <c r="F115" s="23"/>
-      <c r="G115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="17"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="12">
+        <v>180</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" s="11">
         <v>15</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="11">
         <v>18</v>
       </c>
-      <c r="F116" s="23"/>
-      <c r="G116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="17"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D117" s="12">
+        <v>181</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="11">
         <v>15</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="11">
         <v>18</v>
       </c>
-      <c r="F117" s="23"/>
-      <c r="G117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="12">
+        <v>182</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="11">
         <v>19</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="11">
         <v>25</v>
       </c>
-      <c r="F118" s="23"/>
-      <c r="G118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" s="12">
+        <v>183</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="11">
         <v>14</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="11">
         <v>17</v>
       </c>
-      <c r="F119" s="23"/>
-      <c r="G119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D120" s="12">
+        <v>184</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="11">
         <v>14</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="11">
         <v>17</v>
       </c>
-      <c r="F120" s="23"/>
-      <c r="G120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="17"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" s="12">
+        <v>185</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="11">
         <v>15</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E121" s="11">
         <v>18</v>
       </c>
-      <c r="F121" s="23"/>
-      <c r="G121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D122" s="12">
+        <v>186</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="11">
         <v>15</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="11">
         <v>18</v>
       </c>
-      <c r="F122" s="23"/>
-      <c r="G122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="17"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D123" s="12">
+        <v>187</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="11">
         <v>14</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E123" s="11">
         <v>17</v>
       </c>
-      <c r="F123" s="23"/>
-      <c r="G123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D124" s="35">
+      <c r="A124" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D124" s="11">
         <v>14</v>
       </c>
-      <c r="E124" s="20"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="19"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D125" s="35">
+      <c r="A125" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D125" s="11">
         <v>17</v>
       </c>
-      <c r="E125" s="20"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="19"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="17"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D126" s="35">
+      <c r="A126" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D126" s="11">
         <v>15</v>
       </c>
-      <c r="E126" s="20"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="19"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="17"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D127" s="35">
+      <c r="A127" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="11">
         <v>18</v>
       </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="19"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="17"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D128" s="35">
+      <c r="A128" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D128" s="11">
         <v>17</v>
       </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="19"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="17"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D129" s="35">
+      <c r="A129" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D129" s="11">
         <v>21</v>
       </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="19"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="17"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D130" s="35">
+      <c r="A130" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D130" s="11">
         <v>17</v>
       </c>
-      <c r="E130" s="20"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="19"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D131" s="35">
+      <c r="A131" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D131" s="11">
         <v>21</v>
       </c>
-      <c r="E131" s="20"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="19"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D132" s="35">
+      <c r="A132" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D132" s="11">
         <v>19</v>
       </c>
-      <c r="E132" s="20"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="19"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="17"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D133" s="35">
+      <c r="A133" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D133" s="11">
         <v>23</v>
       </c>
-      <c r="E133" s="20"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="19"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="37"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="19"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="37"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="19"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="38"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="40"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="43"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="34"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="41"/>
+      <c r="A137" s="32"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="41"/>
+      <c r="A138" s="32"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="41"/>
+      <c r="A139" s="32"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="41"/>
+      <c r="A140" s="32"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="41"/>
+      <c r="A141" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
+++ b/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7875"/>
+    <workbookView windowWidth="19350" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="4" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Banana </t>
   </si>
   <si>
-    <t>Carne seca e queijo coalho</t>
+    <t>Carne seca e Queijo Coalho</t>
   </si>
   <si>
     <t>Tapioca</t>
@@ -130,25 +130,25 @@
     <t>Salada</t>
   </si>
   <si>
-    <t>frango com queijo</t>
+    <t>Frango com Queijo</t>
   </si>
   <si>
     <t>Queijo</t>
   </si>
   <si>
-    <t>muçarela</t>
+    <t>Mussarela</t>
   </si>
   <si>
     <t>Ovo</t>
   </si>
   <si>
-    <t>peito de peru com minas</t>
+    <t>Peito de Peru com Minas</t>
   </si>
   <si>
     <t>Bacon</t>
   </si>
   <si>
-    <t>queijo coalho</t>
+    <t>Queijo coalho</t>
   </si>
   <si>
     <t>Sanduíches Natural</t>
@@ -1044,59 +1044,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1114,6 +1065,24 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1278,7 +1247,7 @@
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,38 +1289,38 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1372,13 +1341,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1391,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,88 +1378,82 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1843,8 +1806,8 @@
   <sheetPr/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1866,2475 +1829,2475 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10">
         <v>17</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>22</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10">
         <v>17</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>22</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10">
         <v>26</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10">
         <v>22</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10">
         <v>13</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10">
         <v>23</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10">
         <v>20</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <v>26</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
         <v>24</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10">
         <v>20</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10">
         <v>20</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10">
         <v>12</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10">
         <v>28</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10">
         <v>28</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10">
         <v>27</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10">
         <v>28</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10">
         <v>25</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
         <v>28</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10">
         <v>28</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10">
         <v>21</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10">
         <v>24</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10">
         <v>21</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10">
         <v>18</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10">
         <v>14</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10">
         <v>13</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10">
         <v>17</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" ht="30" spans="1:7">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10">
         <v>19</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" ht="30" spans="1:7">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10">
         <v>19</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" ht="30" spans="1:7">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10">
         <v>19</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" ht="30" spans="1:7">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10">
         <v>20</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="45" spans="1:7">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10">
         <v>20</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" ht="30" spans="1:7">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10">
         <v>20</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" ht="45" spans="1:7">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11">
+      <c r="C34" s="9"/>
+      <c r="D34" s="10">
         <v>25</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" ht="60" spans="1:7">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11">
+      <c r="C35" s="9"/>
+      <c r="D35" s="10">
         <v>23</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11">
+      <c r="C36" s="9"/>
+      <c r="D36" s="10">
         <v>13</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
+      <c r="C37" s="9"/>
+      <c r="D37" s="10">
         <v>15</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10">
         <v>28</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11">
+      <c r="C39" s="9"/>
+      <c r="D39" s="10">
         <v>12</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11">
+      <c r="C40" s="9"/>
+      <c r="D40" s="10">
         <v>14</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11">
+      <c r="C41" s="9"/>
+      <c r="D41" s="10">
         <v>18.9</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11">
+      <c r="C42" s="9"/>
+      <c r="D42" s="10">
         <v>28.9</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11">
+      <c r="C43" s="9"/>
+      <c r="D43" s="10">
         <v>12</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11">
+      <c r="C44" s="9"/>
+      <c r="D44" s="10">
         <v>4</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11">
+      <c r="C45" s="9"/>
+      <c r="D45" s="10">
         <v>9</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>25</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <v>22</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" ht="45" spans="1:7">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <v>24</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19" t="s">
+      <c r="E48" s="16"/>
+      <c r="F48" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" ht="45" spans="1:7">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="10">
         <v>42</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19" t="s">
+      <c r="E49" s="16"/>
+      <c r="F49" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" ht="30" spans="1:7">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <v>30</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19" t="s">
+      <c r="E50" s="16"/>
+      <c r="F50" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="17"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" ht="30" spans="1:7">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="10">
         <v>27</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" ht="30" spans="1:7">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <v>16</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" ht="30" spans="1:7">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="10">
         <v>25</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19" t="s">
+      <c r="E53" s="16"/>
+      <c r="F53" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" ht="30" spans="1:7">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <v>16</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" ht="45" spans="1:7">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <v>19</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G55" s="17"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11">
+      <c r="C56" s="9"/>
+      <c r="D56" s="10">
         <v>8</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11">
+      <c r="C57" s="9"/>
+      <c r="D57" s="10">
         <v>8</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="17"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11">
+      <c r="C58" s="9"/>
+      <c r="D58" s="10">
         <v>4</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="17"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11">
+      <c r="C59" s="9"/>
+      <c r="D59" s="10">
         <v>12</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="17"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11">
+      <c r="C60" s="9"/>
+      <c r="D60" s="10">
         <v>12</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="17"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11">
+      <c r="C61" s="9"/>
+      <c r="D61" s="10">
         <v>8</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="17"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11">
+      <c r="C62" s="9"/>
+      <c r="D62" s="10">
         <v>8</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11">
+      <c r="C63" s="9"/>
+      <c r="D63" s="10">
         <v>10</v>
       </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="17"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11">
+      <c r="C64" s="9"/>
+      <c r="D64" s="10">
         <v>8</v>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="17"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11">
+      <c r="C65" s="9"/>
+      <c r="D65" s="10">
         <v>8</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="17"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11">
+      <c r="C66" s="9"/>
+      <c r="D66" s="10">
         <v>4.5</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="17"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11">
+      <c r="C67" s="9"/>
+      <c r="D67" s="10">
         <v>5</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="17"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11">
+      <c r="C68" s="9"/>
+      <c r="D68" s="10">
         <v>9</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="17"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11">
+      <c r="C69" s="9"/>
+      <c r="D69" s="10">
         <v>8</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="17"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11">
+      <c r="C70" s="9"/>
+      <c r="D70" s="10">
         <v>5.5</v>
       </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="17"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11">
+      <c r="C71" s="9"/>
+      <c r="D71" s="10">
         <v>5</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="17"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11">
+      <c r="C72" s="9"/>
+      <c r="D72" s="10">
         <v>12</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="17"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11">
+      <c r="C73" s="9"/>
+      <c r="D73" s="10">
         <v>10</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="17"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11">
+      <c r="C74" s="9"/>
+      <c r="D74" s="10">
         <v>4</v>
       </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="17"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11">
+      <c r="C75" s="9"/>
+      <c r="D75" s="10">
         <v>8</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11">
+      <c r="C76" s="9"/>
+      <c r="D76" s="10">
         <v>8</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="17"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11">
+      <c r="C77" s="9"/>
+      <c r="D77" s="10">
         <v>7</v>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="17"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11">
+      <c r="C78" s="9"/>
+      <c r="D78" s="10">
         <v>15</v>
       </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="17"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11">
+      <c r="C79" s="9"/>
+      <c r="D79" s="10">
         <v>8</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="17"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11">
+      <c r="C80" s="9"/>
+      <c r="D80" s="10">
         <v>6.5</v>
       </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="11">
+      <c r="B81" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="10">
         <v>14</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>17</v>
       </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D82" s="11">
+      <c r="B82" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="10">
         <v>14</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>17</v>
       </c>
-      <c r="F82" s="19"/>
-      <c r="G82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="11">
+      <c r="B83" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="10">
         <v>15</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>18</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" s="11">
+      <c r="B84" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="10">
         <v>15</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>18</v>
       </c>
-      <c r="F84" s="19"/>
-      <c r="G84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D85" s="11">
+      <c r="B85" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="10">
         <v>19</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="10">
         <v>23</v>
       </c>
-      <c r="F85" s="19"/>
-      <c r="G85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" s="11">
+      <c r="B86" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="10">
         <v>17</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="10">
         <v>21</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="11">
+      <c r="B87" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="10">
         <v>14</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="10">
         <v>17</v>
       </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D88" s="11">
+      <c r="B88" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="10">
         <v>14</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="10">
         <v>17</v>
       </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" s="11">
+      <c r="B89" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="10">
         <v>19</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="10">
         <v>23</v>
       </c>
-      <c r="F89" s="19"/>
-      <c r="G89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D90" s="11">
+      <c r="B90" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="10">
         <v>19</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="10">
         <v>25</v>
       </c>
-      <c r="F90" s="19"/>
-      <c r="G90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" s="11">
+      <c r="B91" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="10">
         <v>19</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="10">
         <v>25</v>
       </c>
-      <c r="F91" s="19"/>
-      <c r="G91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="11">
+      <c r="B92" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="10">
         <v>15</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="10">
         <v>18</v>
       </c>
-      <c r="F92" s="19"/>
-      <c r="G92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="11">
+      <c r="B93" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="10">
         <v>15</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="10">
         <v>18</v>
       </c>
-      <c r="F93" s="19"/>
-      <c r="G93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D94" s="11">
+      <c r="B94" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="10">
         <v>15</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="10">
         <v>18</v>
       </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="11">
+      <c r="B95" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="10">
         <v>12</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="10">
         <v>15</v>
       </c>
-      <c r="F95" s="19"/>
-      <c r="G95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="15"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="11">
+      <c r="B96" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" s="10">
         <v>15</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="10">
         <v>18</v>
       </c>
-      <c r="F96" s="19"/>
-      <c r="G96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" s="11">
+      <c r="B97" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="10">
         <v>19</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="10">
         <v>23</v>
       </c>
-      <c r="F97" s="19"/>
-      <c r="G97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="11">
+      <c r="B98" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="10">
         <v>14</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <v>17</v>
       </c>
-      <c r="F98" s="19"/>
-      <c r="G98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D99" s="11">
+      <c r="B99" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="10">
         <v>15</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>18</v>
       </c>
-      <c r="F99" s="19"/>
-      <c r="G99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="11">
+      <c r="B100" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="10">
         <v>14</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>17</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="11">
+      <c r="B101" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="10">
         <v>16</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="10">
         <v>19</v>
       </c>
-      <c r="F101" s="19"/>
-      <c r="G101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="11">
+      <c r="B102" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="10">
         <v>16</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="10">
         <v>19</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" s="11">
+      <c r="B103" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="10">
         <v>15</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="10">
         <v>18</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D104" s="11">
+      <c r="B104" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="10">
         <v>14</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>17</v>
       </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="11">
+      <c r="B105" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="10">
         <v>14</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="10">
         <v>17</v>
       </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="11">
+      <c r="B106" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="10">
         <v>14</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="10">
         <v>17</v>
       </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" s="11">
+      <c r="B107" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="10">
         <v>14</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="10">
         <v>17</v>
       </c>
-      <c r="F107" s="19"/>
-      <c r="G107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D108" s="11">
+      <c r="B108" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="10">
         <v>14</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="10">
         <v>17</v>
       </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109" s="11">
+      <c r="B109" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="10">
         <v>15</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109" s="10">
         <v>18</v>
       </c>
-      <c r="F109" s="19"/>
-      <c r="G109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D110" s="11">
+      <c r="B110" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="10">
         <v>15</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="10">
         <v>18</v>
       </c>
-      <c r="F110" s="19"/>
-      <c r="G110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="11">
+      <c r="B111" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="10">
         <v>14</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="10">
         <v>17</v>
       </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="11">
+      <c r="B112" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="10">
         <v>14</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="10">
         <v>17</v>
       </c>
-      <c r="F112" s="19"/>
-      <c r="G112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="11">
+      <c r="B113" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="10">
         <v>17</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="10">
         <v>22</v>
       </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="11">
+      <c r="B114" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="10">
         <v>15</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="10">
         <v>18</v>
       </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="11">
+      <c r="B115" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="10">
         <v>12</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="10">
         <v>16</v>
       </c>
-      <c r="F115" s="19"/>
-      <c r="G115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="11">
+      <c r="B116" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" s="10">
         <v>15</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="10">
         <v>18</v>
       </c>
-      <c r="F116" s="19"/>
-      <c r="G116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" s="11">
+      <c r="B117" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="10">
         <v>15</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="10">
         <v>18</v>
       </c>
-      <c r="F117" s="19"/>
-      <c r="G117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="11">
+      <c r="B118" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="10">
         <v>19</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="10">
         <v>25</v>
       </c>
-      <c r="F118" s="19"/>
-      <c r="G118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="11">
+      <c r="B119" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="10">
         <v>14</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="10">
         <v>17</v>
       </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="11">
+      <c r="B120" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="10">
         <v>14</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="10">
         <v>17</v>
       </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="11">
+      <c r="B121" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="10">
         <v>15</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="10">
         <v>18</v>
       </c>
-      <c r="F121" s="19"/>
-      <c r="G121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="15"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D122" s="11">
+      <c r="B122" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="10">
         <v>15</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="10">
         <v>18</v>
       </c>
-      <c r="F122" s="19"/>
-      <c r="G122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" s="11">
+      <c r="B123" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="10">
         <v>14</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="10">
         <v>17</v>
       </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C124" s="10" t="s">
+      <c r="B124" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="10">
         <v>14</v>
       </c>
-      <c r="E124" s="18"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="17"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C125" s="10" t="s">
+      <c r="B125" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="10">
         <v>17</v>
       </c>
-      <c r="E125" s="18"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="17"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C126" s="10" t="s">
+      <c r="B126" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="10">
         <v>15</v>
       </c>
-      <c r="E126" s="18"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="17"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C127" s="10" t="s">
+      <c r="B127" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D127" s="11">
+      <c r="D127" s="10">
         <v>18</v>
       </c>
-      <c r="E127" s="18"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="17"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C128" s="10" t="s">
+      <c r="B128" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="10">
         <v>17</v>
       </c>
-      <c r="E128" s="18"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="17"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="28" t="s">
+      <c r="A129" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="10" t="s">
+      <c r="B129" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="10">
         <v>21</v>
       </c>
-      <c r="E129" s="18"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="17"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C130" s="10" t="s">
+      <c r="B130" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="10">
         <v>17</v>
       </c>
-      <c r="E130" s="18"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="17"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C131" s="10" t="s">
+      <c r="B131" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D131" s="10">
         <v>21</v>
       </c>
-      <c r="E131" s="18"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="17"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="15"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="28" t="s">
+      <c r="A132" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C132" s="10" t="s">
+      <c r="B132" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="10">
         <v>19</v>
       </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="17"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C133" s="10" t="s">
+      <c r="B133" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="10">
         <v>23</v>
       </c>
-      <c r="E133" s="18"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="17"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="15"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="28"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="17"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="28"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="17"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="29"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="34"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="32"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="32"/>
+      <c r="A137" s="30"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="32"/>
+      <c r="A138" s="30"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="32"/>
+      <c r="A139" s="30"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="32"/>
+      <c r="A140" s="30"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="32"/>
+      <c r="A141" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
+++ b/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="245">
   <si>
     <t>NOME</t>
   </si>
@@ -256,40 +256,61 @@
     <t>Pão, Carne e Queijo</t>
   </si>
   <si>
+    <t>CheesseBurguer.jpg | CheesseBurguer_2.jpg | x-burger.png</t>
+  </si>
+  <si>
     <t>CheeseSalada</t>
   </si>
   <si>
     <t>Pão, Carne, Queijo, Tomate e Alface</t>
   </si>
   <si>
+    <t>CheeseSalada.jpg | Cheese salada.jpg</t>
+  </si>
+  <si>
     <t>CheeseBacon</t>
   </si>
   <si>
     <t>Pão, Carne, Queijo e Bacon</t>
   </si>
   <si>
+    <t>Cheesebacon.jpg | x-bacon.png</t>
+  </si>
+  <si>
     <t>Egg CheeseBurguer</t>
   </si>
   <si>
     <t>Pão, Carne, Queijo e Ovo</t>
   </si>
   <si>
+    <t>egg-x-burger.png | eggcheeseburguer (1).jpg</t>
+  </si>
+  <si>
     <t>Egg Cheese com Presunto</t>
   </si>
   <si>
     <t>Pão, Carne, Queijo, Ovo e Presunto</t>
   </si>
   <si>
+    <t>Eggcheese com presunto.jpg | egg-x-burger-presunto.png</t>
+  </si>
+  <si>
     <t>Egg Cheese Salada</t>
   </si>
   <si>
     <t>Pão , Carne, Queijo, Ovo, Tomate e Alface</t>
   </si>
   <si>
+    <t>Eggcheese salada.jpg | egg-x-salada.png</t>
+  </si>
+  <si>
     <t>Egg Cheese Bacon</t>
   </si>
   <si>
     <t>Pão, Carne, Queijo, Ovo e Bacon</t>
+  </si>
+  <si>
+    <t>egg-x-bacon.png</t>
   </si>
   <si>
     <r>
@@ -314,24 +335,36 @@
     <t>2x Carne, 2x Queijo, 2x Presunto, Tomate e Alface</t>
   </si>
   <si>
+    <t>Citta Burguer.jpg</t>
+  </si>
+  <si>
     <t>X Tudo</t>
   </si>
   <si>
     <t>Carne, Queijo, Presunto, Bacon, Ovo, Tomate e Alface</t>
   </si>
   <si>
+    <t>X-tudo.jpg | X Tudo.jpg | X-Tudo (4).jpg</t>
+  </si>
+  <si>
     <t>Salada de Frutas 300ml</t>
   </si>
   <si>
     <t>Sobremesas</t>
   </si>
   <si>
+    <t>Salada de Frutas (2).jpg | Salada de Fruta.jpg | Salada de Frutas (1).jpg | Salada de Frutas (3).jpg</t>
+  </si>
+  <si>
     <t>Salada de Frutas 500ml</t>
   </si>
   <si>
     <t xml:space="preserve">Prato de Verão </t>
   </si>
   <si>
+    <t>Prato de Verão.jpg | Pratos de Verão (2).jpg | Pratos de Verão (4).jpg</t>
+  </si>
+  <si>
     <t>Pudim Fatia</t>
   </si>
   <si>
@@ -350,6 +383,9 @@
     <t>Fatia de Pizza</t>
   </si>
   <si>
+    <t>Icon(Icons.pizza)</t>
+  </si>
+  <si>
     <t>Pão Queijo Unidade</t>
   </si>
   <si>
@@ -377,12 +413,18 @@
     <t>Pão, Queijo Presunto, Ovo, Tomate e Alface</t>
   </si>
   <si>
+    <t>americano.png</t>
+  </si>
+  <si>
     <t>Bauru</t>
   </si>
   <si>
     <t>Pão, Queijo, Filé, Ovo, Tomate, Alface e Fritas</t>
   </si>
   <si>
+    <t>Bauru Carne (3).jpg | bauro-de-carne.png | Bauru.jpg | Bauru Carne.jpg | Bauru Carne (1).jpg</t>
+  </si>
+  <si>
     <t>Filé de Carne</t>
   </si>
   <si>
@@ -395,24 +437,36 @@
     <t>Pão Francês e Filé de Frango</t>
   </si>
   <si>
+    <t>Filé de Frango.jpg | Filé Frango com salada.jpg | Filé frango queijo minas e salada 2 (1).jpg | Filé frango queijo minas e salada 2 (2).jpg | Filé frango queijo minas e salada 2 (2).jpg</t>
+  </si>
+  <si>
     <t>Misto Quente</t>
   </si>
   <si>
     <t>Pão de forma, Queijo e Presunto</t>
   </si>
   <si>
+    <t>misto quente (1).jpg | misto quente (2).jpg | misto-quente.png</t>
+  </si>
+  <si>
     <t>Peito de Peru</t>
   </si>
   <si>
     <t>Pão árabe e Peito de Peru</t>
   </si>
   <si>
+    <t>Peito de Peru c Queijo minas.jpg | Peito de Peru queijo minas e salada 2 (1).jpg | Peito de Peru queijo minas e salada 2 (2).jpg | Peito de Peru queijo minas e salada 2 (3).jpg | Peito Peru com queijo minas e salada.jpg</t>
+  </si>
+  <si>
     <t>Queijo Quente</t>
   </si>
   <si>
     <t>Pão de Forma e Queijo</t>
   </si>
   <si>
+    <t>queijo-quente.png | Queijo minas com queijo e orégano.jpg</t>
+  </si>
+  <si>
     <t>Queijo Quente com Banana</t>
   </si>
   <si>
@@ -425,9 +479,15 @@
     <t>Cafeteria</t>
   </si>
   <si>
+    <t>café (1).jpg</t>
+  </si>
+  <si>
     <t>Café Expresso</t>
   </si>
   <si>
+    <t>café (2).jpg</t>
+  </si>
+  <si>
     <t>Cafézinho</t>
   </si>
   <si>
@@ -455,6 +515,9 @@
     <t>Pão na Chapa</t>
   </si>
   <si>
+    <t>pão na chapa.jpg</t>
+  </si>
+  <si>
     <t>Torrada</t>
   </si>
   <si>
@@ -506,30 +569,54 @@
     <t>Sucos</t>
   </si>
   <si>
+    <t>vitamina-abacate.png</t>
+  </si>
+  <si>
     <t>Abacaxi</t>
   </si>
   <si>
+    <t>abacaxi.png</t>
+  </si>
+  <si>
     <t>Abacaxi com Hortelã</t>
   </si>
   <si>
+    <t>abacaxi-c-hortela.png</t>
+  </si>
+  <si>
     <t>Acerola</t>
   </si>
   <si>
+    <t>acerola.png</t>
+  </si>
+  <si>
     <t>Amora</t>
   </si>
   <si>
+    <t>amora.png | Amora.jpg</t>
+  </si>
+  <si>
     <t>Antigripal</t>
   </si>
   <si>
     <t>Banana com Aveia</t>
   </si>
   <si>
+    <t>banana-c-aveia.png</t>
+  </si>
+  <si>
     <t>Beterraba, Cenoura e Laranja</t>
   </si>
   <si>
+    <t>cenoura.png</t>
+  </si>
+  <si>
     <t>Blueberry (Mirtillo)</t>
   </si>
   <si>
+    <t>blueberry.png | Blueberry.jpg</t>
+  </si>
+  <si>
     <t>Bomba Big bi</t>
   </si>
   <si>
@@ -539,94 +626,175 @@
     <t>Cacau</t>
   </si>
   <si>
+    <t>cacau.png</t>
+  </si>
+  <si>
     <t>Caju</t>
   </si>
   <si>
+    <t>caju.png</t>
+  </si>
+  <si>
     <t>Cupuaçu</t>
   </si>
   <si>
+    <t>cupuaçu.png</t>
+  </si>
+  <si>
     <t>Framboesa</t>
   </si>
   <si>
+    <t>framboesa.png | Framboesa.jpg</t>
+  </si>
+  <si>
     <t>Fruta do Conde</t>
   </si>
   <si>
+    <t>fruta-do-conde.png</t>
+  </si>
+  <si>
     <t>Frutas Vermelhas</t>
   </si>
   <si>
+    <t>frutas vermelhas.jpg</t>
+  </si>
+  <si>
     <t>Goiaba</t>
   </si>
   <si>
     <t>Graviola</t>
   </si>
   <si>
+    <t>graviola.png</t>
+  </si>
+  <si>
     <t>Guaramalte</t>
   </si>
   <si>
     <t>Guaramix</t>
   </si>
   <si>
-    <t>Guaraproter</t>
+    <t>Guaraprotein</t>
+  </si>
+  <si>
+    <t>guaraprotein.png</t>
   </si>
   <si>
     <t>Kiwi</t>
   </si>
   <si>
+    <t>kiwi.png</t>
+  </si>
+  <si>
     <t>Laranja</t>
   </si>
   <si>
+    <t>laranja.png</t>
+  </si>
+  <si>
     <t>Limão</t>
   </si>
   <si>
+    <t>limao.png</t>
+  </si>
+  <si>
     <t>Maçã</t>
   </si>
   <si>
+    <t>maça.png</t>
+  </si>
+  <si>
     <t>Mamão</t>
   </si>
   <si>
+    <t>mamao.png</t>
+  </si>
+  <si>
     <t>Manga</t>
   </si>
   <si>
+    <t>manga.png</t>
+  </si>
+  <si>
     <t>Mangaba</t>
   </si>
   <si>
+    <t>mangaba.png</t>
+  </si>
+  <si>
     <t>Maracujá</t>
   </si>
   <si>
+    <t>maracuja.png</t>
+  </si>
+  <si>
     <t>Melancia</t>
   </si>
   <si>
+    <t>melancia.png</t>
+  </si>
+  <si>
     <t>Melão</t>
   </si>
   <si>
+    <t>melao.png</t>
+  </si>
+  <si>
     <t>Mix com Morango</t>
   </si>
   <si>
+    <t>Sucos Vermelhos.jpg</t>
+  </si>
+  <si>
     <t>Morango</t>
   </si>
   <si>
+    <t>morango-c-leite.png</t>
+  </si>
+  <si>
     <t>Pitaya</t>
   </si>
   <si>
+    <t>Pitaya (11).jpg | Pitaya (5).jpg | Pitaya (8).jpg | Pitaya (9).jpg</t>
+  </si>
+  <si>
     <t>Seriguela</t>
   </si>
   <si>
+    <t>siriguela.png</t>
+  </si>
+  <si>
     <t>Suco Verde</t>
   </si>
   <si>
+    <t>Sucos 2 (1).jpg</t>
+  </si>
+  <si>
     <t>Super Bomba</t>
   </si>
   <si>
     <t>Tangerina</t>
   </si>
   <si>
+    <t>tangerina.png</t>
+  </si>
+  <si>
     <t>Tutti-Frutti</t>
   </si>
   <si>
+    <t>tutti-frutti.png</t>
+  </si>
+  <si>
     <t>Umbu</t>
   </si>
   <si>
+    <t>umbu.png</t>
+  </si>
+  <si>
     <t>Uva</t>
+  </si>
+  <si>
+    <t>uva.png</t>
   </si>
   <si>
     <t>Vitamina Mista</t>
@@ -641,10 +809,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -688,23 +856,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,6 +880,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -734,8 +902,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,36 +979,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,40 +993,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,7 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,25 +1045,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,19 +1093,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,19 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +1129,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,19 +1183,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,55 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,23 +1288,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,11 +1318,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,163 +1374,157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1534,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1378,7 +1546,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,13 +1555,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1573,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,10 +1585,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1429,10 +1597,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,7 +1612,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
@@ -1806,8 +1974,8 @@
   <sheetPr/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2421,11 +2589,13 @@
       <c r="F27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" ht="30" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>63</v>
@@ -2436,13 +2606,15 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="29" ht="30" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>63</v>
@@ -2453,13 +2625,15 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" ht="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>63</v>
@@ -2470,13 +2644,15 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" ht="30" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>63</v>
@@ -2487,13 +2663,15 @@
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="15"/>
+        <v>79</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" ht="45" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>63</v>
@@ -2504,13 +2682,15 @@
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="33" ht="30" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>63</v>
@@ -2521,13 +2701,15 @@
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="34" ht="45" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>63</v>
@@ -2538,13 +2720,15 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="35" ht="60" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>63</v>
@@ -2555,16 +2739,18 @@
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10">
@@ -2572,14 +2758,16 @@
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10">
@@ -2587,14 +2775,16 @@
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="15"/>
+      <c r="G37" s="15" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10">
@@ -2602,14 +2792,16 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="15" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="10">
@@ -2621,10 +2813,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10">
@@ -2636,10 +2828,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="10">
@@ -2651,10 +2843,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="10">
@@ -2666,10 +2858,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10">
@@ -2677,14 +2869,16 @@
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="10">
@@ -2696,10 +2890,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="10">
@@ -2711,13 +2905,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D46" s="10">
         <v>25</v>
@@ -2728,13 +2922,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D47" s="10">
         <v>22</v>
@@ -2745,162 +2939,176 @@
     </row>
     <row r="48" ht="45" spans="1:7">
       <c r="A48" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D48" s="10">
         <v>24</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="49" ht="45" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D49" s="10">
         <v>42</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="50" ht="30" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D50" s="10">
         <v>30</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="17" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G50" s="15"/>
     </row>
     <row r="51" ht="30" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D51" s="10">
         <v>27</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="15"/>
+        <v>122</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="52" ht="30" spans="1:7">
       <c r="A52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="C52" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D52" s="10">
         <v>16</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="15"/>
+        <v>125</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" ht="30" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D53" s="10">
         <v>25</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="54" ht="30" spans="1:7">
       <c r="A54" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D54" s="10">
         <v>16</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="55" ht="45" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D55" s="10">
         <v>19</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="10">
@@ -2908,14 +3116,16 @@
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="10">
@@ -2923,14 +3133,16 @@
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="10">
@@ -2938,14 +3150,16 @@
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="15"/>
+      <c r="G58" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="10">
@@ -2957,10 +3171,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="10">
@@ -2972,10 +3186,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="10">
@@ -2987,10 +3201,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="10">
@@ -3002,10 +3216,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="10">
@@ -3017,10 +3231,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="10">
@@ -3032,10 +3246,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="10">
@@ -3047,10 +3261,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="10">
@@ -3058,14 +3272,16 @@
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="15"/>
+      <c r="G66" s="15" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="10">
@@ -3077,10 +3293,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="10">
@@ -3092,10 +3308,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="8" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="10">
@@ -3107,10 +3323,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="10">
@@ -3122,10 +3338,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="10">
@@ -3137,10 +3353,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="8" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="10">
@@ -3152,10 +3368,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="10">
@@ -3167,10 +3383,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="10">
@@ -3182,10 +3398,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="10">
@@ -3197,10 +3413,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="10">
@@ -3212,10 +3428,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="10">
@@ -3227,10 +3443,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="10">
@@ -3242,10 +3458,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="10">
@@ -3257,10 +3473,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="10">
@@ -3272,10 +3488,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>40</v>
@@ -3287,14 +3503,16 @@
         <v>17</v>
       </c>
       <c r="F81" s="17"/>
-      <c r="G81" s="15"/>
+      <c r="G81" s="15" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>40</v>
@@ -3306,14 +3524,16 @@
         <v>17</v>
       </c>
       <c r="F82" s="17"/>
-      <c r="G82" s="15"/>
+      <c r="G82" s="15" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>40</v>
@@ -3325,14 +3545,16 @@
         <v>18</v>
       </c>
       <c r="F83" s="17"/>
-      <c r="G83" s="15"/>
+      <c r="G83" s="15" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>40</v>
@@ -3344,14 +3566,16 @@
         <v>18</v>
       </c>
       <c r="F84" s="17"/>
-      <c r="G84" s="15"/>
+      <c r="G84" s="15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>40</v>
@@ -3363,14 +3587,16 @@
         <v>23</v>
       </c>
       <c r="F85" s="17"/>
-      <c r="G85" s="15"/>
+      <c r="G85" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>40</v>
@@ -3386,10 +3612,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>40</v>
@@ -3401,14 +3627,16 @@
         <v>17</v>
       </c>
       <c r="F87" s="17"/>
-      <c r="G87" s="15"/>
+      <c r="G87" s="15" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>40</v>
@@ -3420,14 +3648,16 @@
         <v>17</v>
       </c>
       <c r="F88" s="17"/>
-      <c r="G88" s="15"/>
+      <c r="G88" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>40</v>
@@ -3439,14 +3669,16 @@
         <v>23</v>
       </c>
       <c r="F89" s="17"/>
-      <c r="G89" s="15"/>
+      <c r="G89" s="15" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>40</v>
@@ -3462,10 +3694,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>40</v>
@@ -3481,10 +3713,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>40</v>
@@ -3496,14 +3728,16 @@
         <v>18</v>
       </c>
       <c r="F92" s="17"/>
-      <c r="G92" s="15"/>
+      <c r="G92" s="15" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>40</v>
@@ -3515,14 +3749,16 @@
         <v>18</v>
       </c>
       <c r="F93" s="17"/>
-      <c r="G93" s="15"/>
+      <c r="G93" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>40</v>
@@ -3534,14 +3770,16 @@
         <v>18</v>
       </c>
       <c r="F94" s="17"/>
-      <c r="G94" s="15"/>
+      <c r="G94" s="15" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>40</v>
@@ -3553,14 +3791,16 @@
         <v>15</v>
       </c>
       <c r="F95" s="17"/>
-      <c r="G95" s="15"/>
+      <c r="G95" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>40</v>
@@ -3572,14 +3812,16 @@
         <v>18</v>
       </c>
       <c r="F96" s="17"/>
-      <c r="G96" s="15"/>
+      <c r="G96" s="15" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>40</v>
@@ -3591,14 +3833,16 @@
         <v>23</v>
       </c>
       <c r="F97" s="17"/>
-      <c r="G97" s="15"/>
+      <c r="G97" s="15" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>40</v>
@@ -3614,10 +3858,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>40</v>
@@ -3629,14 +3873,16 @@
         <v>18</v>
       </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="15"/>
+      <c r="G99" s="15" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>40</v>
@@ -3652,10 +3898,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>40</v>
@@ -3671,10 +3917,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>40</v>
@@ -3686,14 +3932,16 @@
         <v>19</v>
       </c>
       <c r="F102" s="17"/>
-      <c r="G102" s="15"/>
+      <c r="G102" s="15" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>40</v>
@@ -3705,14 +3953,16 @@
         <v>18</v>
       </c>
       <c r="F103" s="17"/>
-      <c r="G103" s="15"/>
+      <c r="G103" s="15" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>40</v>
@@ -3724,14 +3974,16 @@
         <v>17</v>
       </c>
       <c r="F104" s="17"/>
-      <c r="G104" s="15"/>
+      <c r="G104" s="15" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>40</v>
@@ -3743,14 +3995,16 @@
         <v>17</v>
       </c>
       <c r="F105" s="17"/>
-      <c r="G105" s="15"/>
+      <c r="G105" s="15" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>40</v>
@@ -3762,14 +4016,16 @@
         <v>17</v>
       </c>
       <c r="F106" s="17"/>
-      <c r="G106" s="15"/>
+      <c r="G106" s="15" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>40</v>
@@ -3781,14 +4037,16 @@
         <v>17</v>
       </c>
       <c r="F107" s="17"/>
-      <c r="G107" s="15"/>
+      <c r="G107" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>40</v>
@@ -3800,14 +4058,16 @@
         <v>17</v>
       </c>
       <c r="F108" s="17"/>
-      <c r="G108" s="15"/>
+      <c r="G108" s="15" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="8" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>40</v>
@@ -3819,14 +4079,16 @@
         <v>18</v>
       </c>
       <c r="F109" s="17"/>
-      <c r="G109" s="15"/>
+      <c r="G109" s="15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="8" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>40</v>
@@ -3838,14 +4100,16 @@
         <v>18</v>
       </c>
       <c r="F110" s="17"/>
-      <c r="G110" s="15"/>
+      <c r="G110" s="15" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="8" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>40</v>
@@ -3857,14 +4121,16 @@
         <v>17</v>
       </c>
       <c r="F111" s="17"/>
-      <c r="G111" s="15"/>
+      <c r="G111" s="15" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>40</v>
@@ -3876,14 +4142,16 @@
         <v>17</v>
       </c>
       <c r="F112" s="17"/>
-      <c r="G112" s="15"/>
+      <c r="G112" s="15" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="8" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>40</v>
@@ -3895,14 +4163,16 @@
         <v>22</v>
       </c>
       <c r="F113" s="17"/>
-      <c r="G113" s="15"/>
+      <c r="G113" s="15" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="8" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>40</v>
@@ -3914,14 +4184,16 @@
         <v>18</v>
       </c>
       <c r="F114" s="17"/>
-      <c r="G114" s="15"/>
+      <c r="G114" s="15" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="8" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>40</v>
@@ -3933,14 +4205,16 @@
         <v>16</v>
       </c>
       <c r="F115" s="17"/>
-      <c r="G115" s="15"/>
+      <c r="G115" s="15" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="8" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>40</v>
@@ -3952,14 +4226,16 @@
         <v>18</v>
       </c>
       <c r="F116" s="17"/>
-      <c r="G116" s="15"/>
+      <c r="G116" s="15" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="8" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>40</v>
@@ -3971,14 +4247,16 @@
         <v>18</v>
       </c>
       <c r="F117" s="17"/>
-      <c r="G117" s="15"/>
+      <c r="G117" s="15" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="8" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>40</v>
@@ -3994,10 +4272,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>40</v>
@@ -4009,14 +4287,16 @@
         <v>17</v>
       </c>
       <c r="F119" s="17"/>
-      <c r="G119" s="15"/>
+      <c r="G119" s="15" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="8" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>40</v>
@@ -4028,14 +4308,16 @@
         <v>17</v>
       </c>
       <c r="F120" s="17"/>
-      <c r="G120" s="15"/>
+      <c r="G120" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>40</v>
@@ -4047,14 +4329,16 @@
         <v>18</v>
       </c>
       <c r="F121" s="17"/>
-      <c r="G121" s="15"/>
+      <c r="G121" s="15" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>40</v>
@@ -4066,14 +4350,16 @@
         <v>18</v>
       </c>
       <c r="F122" s="17"/>
-      <c r="G122" s="15"/>
+      <c r="G122" s="15" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>40</v>
@@ -4089,81 +4375,89 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D124" s="10">
         <v>14</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="17"/>
-      <c r="G124" s="15"/>
+      <c r="G124" s="15" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D125" s="10">
         <v>17</v>
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="17"/>
-      <c r="G125" s="15"/>
+      <c r="G125" s="15" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D126" s="10">
         <v>15</v>
       </c>
       <c r="E126" s="16"/>
       <c r="F126" s="17"/>
-      <c r="G126" s="15"/>
+      <c r="G126" s="15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="8" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D127" s="10">
         <v>18</v>
       </c>
       <c r="E127" s="16"/>
       <c r="F127" s="17"/>
-      <c r="G127" s="15"/>
+      <c r="G127" s="15" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="26" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D128" s="10">
         <v>17</v>
@@ -4174,13 +4468,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="26" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D129" s="10">
         <v>21</v>
@@ -4191,13 +4485,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="8" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D130" s="10">
         <v>17</v>
@@ -4208,13 +4502,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="8" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D131" s="10">
         <v>21</v>
@@ -4225,37 +4519,41 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="26" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D132" s="10">
         <v>19</v>
       </c>
       <c r="E132" s="16"/>
       <c r="F132" s="17"/>
-      <c r="G132" s="15"/>
+      <c r="G132" s="15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="26" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="D133" s="10">
         <v>23</v>
       </c>
       <c r="E133" s="16"/>
       <c r="F133" s="17"/>
-      <c r="G133" s="15"/>
+      <c r="G133" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="26"/>

--- a/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
+++ b/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="7875"/>
+    <workbookView windowWidth="19350" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="246">
   <si>
     <t>NOME</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Açai e Pitaya</t>
   </si>
   <si>
+    <t xml:space="preserve">SIM </t>
+  </si>
+  <si>
     <t>Açai.jpg</t>
   </si>
   <si>
@@ -163,7 +166,7 @@
     <t>Cenoura</t>
   </si>
   <si>
-    <t>queijo minas</t>
+    <t>Queijo Minas</t>
   </si>
   <si>
     <t>Tapiocas (7).jpg</t>
@@ -214,6 +217,9 @@
     <t>Omelete</t>
   </si>
   <si>
+    <t>SIM</t>
+  </si>
+  <si>
     <t>omelete.png | omelete-carne-seca-c-quiejo.png</t>
   </si>
   <si>
@@ -221,9 +227,6 @@
   </si>
   <si>
     <t>omelete.png</t>
-  </si>
-  <si>
-    <t>Queijo Minas</t>
   </si>
   <si>
     <t>omelete-frango-c-queijo-minas.png | omelete.png</t>
@@ -808,11 +811,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -864,11 +867,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,8 +905,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,9 +972,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,10 +988,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,80 +1000,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,37 +1030,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,7 +1084,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,13 +1144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,19 +1174,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,67 +1204,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,22 +1292,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,7 +1301,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,21 +1336,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1382,143 +1355,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1528,13 +1531,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1546,7 +1549,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,25 +1558,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,10 +1597,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1597,25 +1609,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,23 +1986,23 @@
   <sheetPr/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.2518518518519" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.8740740740741" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.1259259259259" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.2518518518519" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.7481481481481" style="4" customWidth="1"/>
+    <col min="7" max="7" width="49.5037037037037" style="2" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.7481481481481" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.3777777777778" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.6222222222222" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:11">
@@ -2006,22 +2018,22 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2032,24 +2044,26 @@
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="10">
         <v>17</v>
       </c>
       <c r="E2" s="10">
         <v>22</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="20">
+      <c r="J2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="23">
         <v>3</v>
       </c>
     </row>
@@ -2060,1441 +2074,1491 @@
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="10">
         <v>17</v>
       </c>
       <c r="E3" s="10">
         <v>22</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="20">
+      <c r="I3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="10">
         <v>26</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="21">
+      <c r="I4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="10">
         <v>22</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="21">
+      <c r="I5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="10">
         <v>13</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="24">
+      <c r="J6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="10">
         <v>23</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="24">
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="10">
         <v>20</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="24">
+      <c r="F8" s="20"/>
+      <c r="G8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="10">
         <v>26</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="24">
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="10">
         <v>24</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="24">
+      <c r="J10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="10">
         <v>20</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="24">
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" s="10">
         <v>20</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="23" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="24">
+      <c r="I12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="10">
         <v>12</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="23" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="24">
+      <c r="I13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10">
         <v>28</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="23" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="24">
+      <c r="I14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10">
         <v>28</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="25"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10">
         <v>27</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="15" t="s">
-        <v>50</v>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10">
         <v>28</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15" t="s">
-        <v>48</v>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10">
         <v>25</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="15" t="s">
-        <v>45</v>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="10">
         <v>28</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="15" t="s">
-        <v>54</v>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D20" s="10">
         <v>28</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15" t="s">
-        <v>55</v>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="10">
         <v>21</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15" t="s">
-        <v>56</v>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D22" s="10">
         <v>24</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="15" t="s">
-        <v>58</v>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D23" s="10">
         <v>21</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="15" t="s">
-        <v>56</v>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D24" s="10">
         <v>18</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="15" t="s">
-        <v>62</v>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D25" s="10">
         <v>14</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="15" t="s">
-        <v>62</v>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10">
         <v>13</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="20" t="s">
         <v>65</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10">
         <v>17</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" ht="30" spans="1:7">
+      <c r="G27" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" ht="31.5" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10">
         <v>19</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" ht="30" spans="1:7">
+      <c r="G28" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" ht="31.5" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10">
         <v>19</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="19"/>
+      <c r="F29" s="20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" ht="30" spans="1:7">
+      <c r="G29" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" ht="31.5" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10">
         <v>19</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" ht="30" spans="1:7">
+      <c r="G30" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" ht="31.5" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10">
         <v>20</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" ht="45" spans="1:7">
+      <c r="G31" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" ht="31.5" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10">
         <v>20</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" ht="30" spans="1:7">
+      <c r="G32" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" ht="31.5" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10">
         <v>20</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="15" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" ht="45" spans="1:7">
+      <c r="G33" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" ht="47.25" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10">
         <v>25</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" ht="60" spans="1:7">
+      <c r="G34" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" ht="47.25" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10">
         <v>23</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="20" t="s">
         <v>92</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D36" s="10">
         <v>13</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="15" t="s">
-        <v>95</v>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D37" s="10">
         <v>15</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="15" t="s">
-        <v>95</v>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10">
         <v>28</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="15" t="s">
-        <v>98</v>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="10">
         <v>12</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="15"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10">
         <v>14</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="15"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D41" s="10">
         <v>18.9</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="15"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D42" s="10">
         <v>28.9</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="15"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10">
         <v>12</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="15" t="s">
-        <v>105</v>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="10">
         <v>4</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="15"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="10">
         <v>9</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="15"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D46" s="10">
         <v>25</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="15"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="D47" s="10">
         <v>22</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" ht="45" spans="1:7">
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" ht="31.5" spans="1:7">
       <c r="A48" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" s="10">
         <v>24</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" ht="47.25" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" ht="45" spans="1:7">
-      <c r="A49" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="D49" s="10">
         <v>42</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G49" s="15" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" ht="30" spans="1:7">
+      <c r="G49" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" ht="31.5" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" s="10">
         <v>30</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" ht="30" spans="1:7">
+      <c r="E50" s="19"/>
+      <c r="F50" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" ht="31.5" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D51" s="10">
         <v>27</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="15" t="s">
+      <c r="E51" s="19"/>
+      <c r="F51" s="20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" ht="30" spans="1:7">
+      <c r="G51" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" ht="31.5" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D52" s="10">
         <v>16</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="15" t="s">
+      <c r="E52" s="19"/>
+      <c r="F52" s="20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="53" ht="30" spans="1:7">
+      <c r="G52" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" ht="31.5" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="10">
         <v>25</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G53" s="15" t="s">
+      <c r="E53" s="19"/>
+      <c r="F53" s="20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" ht="30" spans="1:7">
-      <c r="A54" s="8" t="s">
+      <c r="G53" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="10">
+    </row>
+    <row r="54" ht="31.5" spans="1:7">
+      <c r="A54" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="14">
         <v>16</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="E54" s="19"/>
+      <c r="F54" s="20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" ht="45" spans="1:7">
-      <c r="A55" s="8" t="s">
+      <c r="G54" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="10">
+    </row>
+    <row r="55" ht="47.25" spans="1:7">
+      <c r="A55" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="14">
         <v>19</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>132</v>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="10">
         <v>8</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="15" t="s">
-        <v>137</v>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="10">
         <v>8</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="15" t="s">
-        <v>139</v>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="10">
         <v>4</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="15" t="s">
-        <v>139</v>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="10">
         <v>12</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="15"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="10">
         <v>12</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="15"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="10">
         <v>8</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="15"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="10">
         <v>8</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="15"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="10">
         <v>10</v>
       </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="15"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="10">
         <v>8</v>
       </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="15"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="10">
         <v>8</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="15"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="10">
         <v>4.5</v>
       </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="15" t="s">
-        <v>149</v>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="10">
         <v>5</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="15"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="10">
         <v>9</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="15"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D69" s="10">
         <v>8</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="15"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D70" s="10">
         <v>5.5</v>
       </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="15"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D71" s="10">
         <v>5</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="15"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="10">
         <v>12</v>
       </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="15"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="10">
         <v>10</v>
       </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="15"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="10">
         <v>4</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="15"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="10">
         <v>8</v>
       </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="15"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="10">
         <v>8</v>
       </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="15"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="10">
         <v>7</v>
       </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="15"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="10">
         <v>15</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="15"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="10">
         <v>8</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="15"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="10">
         <v>6.5</v>
       </c>
-      <c r="E80" s="16"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="15"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D81" s="10">
         <v>14</v>
@@ -3502,20 +3566,20 @@
       <c r="E81" s="10">
         <v>17</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="15" t="s">
-        <v>167</v>
+      <c r="F81" s="20"/>
+      <c r="G81" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D82" s="10">
         <v>14</v>
@@ -3523,20 +3587,20 @@
       <c r="E82" s="10">
         <v>17</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="15" t="s">
-        <v>169</v>
+      <c r="F82" s="20"/>
+      <c r="G82" s="18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D83" s="10">
         <v>15</v>
@@ -3544,20 +3608,20 @@
       <c r="E83" s="10">
         <v>18</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="15" t="s">
-        <v>171</v>
+      <c r="F83" s="20"/>
+      <c r="G83" s="18" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D84" s="10">
         <v>15</v>
@@ -3565,20 +3629,20 @@
       <c r="E84" s="10">
         <v>18</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="15" t="s">
-        <v>173</v>
+      <c r="F84" s="20"/>
+      <c r="G84" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D85" s="10">
         <v>19</v>
@@ -3586,20 +3650,20 @@
       <c r="E85" s="10">
         <v>23</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="15" t="s">
-        <v>175</v>
+      <c r="F85" s="20"/>
+      <c r="G85" s="18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D86" s="10">
         <v>17</v>
@@ -3607,18 +3671,18 @@
       <c r="E86" s="10">
         <v>21</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="15"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D87" s="10">
         <v>14</v>
@@ -3626,20 +3690,20 @@
       <c r="E87" s="10">
         <v>17</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="15" t="s">
-        <v>178</v>
+      <c r="F87" s="20"/>
+      <c r="G87" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D88" s="10">
         <v>14</v>
@@ -3647,20 +3711,20 @@
       <c r="E88" s="10">
         <v>17</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="15" t="s">
-        <v>180</v>
+      <c r="F88" s="20"/>
+      <c r="G88" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D89" s="10">
         <v>19</v>
@@ -3668,20 +3732,20 @@
       <c r="E89" s="10">
         <v>23</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="15" t="s">
-        <v>182</v>
+      <c r="F89" s="20"/>
+      <c r="G89" s="18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D90" s="10">
         <v>19</v>
@@ -3689,18 +3753,18 @@
       <c r="E90" s="10">
         <v>25</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="15"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D91" s="10">
         <v>19</v>
@@ -3708,18 +3772,18 @@
       <c r="E91" s="10">
         <v>25</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="15"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D92" s="10">
         <v>15</v>
@@ -3727,20 +3791,20 @@
       <c r="E92" s="10">
         <v>18</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="15" t="s">
-        <v>186</v>
+      <c r="F92" s="20"/>
+      <c r="G92" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D93" s="10">
         <v>15</v>
@@ -3748,20 +3812,20 @@
       <c r="E93" s="10">
         <v>18</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="15" t="s">
-        <v>188</v>
+      <c r="F93" s="20"/>
+      <c r="G93" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D94" s="10">
         <v>15</v>
@@ -3769,20 +3833,20 @@
       <c r="E94" s="10">
         <v>18</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="15" t="s">
-        <v>190</v>
+      <c r="F94" s="20"/>
+      <c r="G94" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D95" s="10">
         <v>12</v>
@@ -3790,20 +3854,20 @@
       <c r="E95" s="10">
         <v>15</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="15" t="s">
-        <v>192</v>
+      <c r="F95" s="20"/>
+      <c r="G95" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D96" s="10">
         <v>15</v>
@@ -3811,20 +3875,20 @@
       <c r="E96" s="10">
         <v>18</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="15" t="s">
-        <v>194</v>
+      <c r="F96" s="20"/>
+      <c r="G96" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D97" s="10">
         <v>19</v>
@@ -3832,20 +3896,20 @@
       <c r="E97" s="10">
         <v>23</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="15" t="s">
-        <v>196</v>
+      <c r="F97" s="20"/>
+      <c r="G97" s="18" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D98" s="10">
         <v>14</v>
@@ -3853,18 +3917,18 @@
       <c r="E98" s="10">
         <v>17</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="15"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D99" s="10">
         <v>15</v>
@@ -3872,20 +3936,20 @@
       <c r="E99" s="10">
         <v>18</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="15" t="s">
-        <v>199</v>
+      <c r="F99" s="20"/>
+      <c r="G99" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D100" s="10">
         <v>14</v>
@@ -3893,18 +3957,18 @@
       <c r="E100" s="10">
         <v>17</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="15"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D101" s="10">
         <v>16</v>
@@ -3912,18 +3976,18 @@
       <c r="E101" s="10">
         <v>19</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="15"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D102" s="10">
         <v>16</v>
@@ -3931,20 +3995,20 @@
       <c r="E102" s="10">
         <v>19</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="15" t="s">
-        <v>203</v>
+      <c r="F102" s="20"/>
+      <c r="G102" s="18" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D103" s="10">
         <v>15</v>
@@ -3952,20 +4016,20 @@
       <c r="E103" s="10">
         <v>18</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="15" t="s">
-        <v>205</v>
+      <c r="F103" s="20"/>
+      <c r="G103" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D104" s="10">
         <v>14</v>
@@ -3973,20 +4037,20 @@
       <c r="E104" s="10">
         <v>17</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="15" t="s">
-        <v>207</v>
+      <c r="F104" s="20"/>
+      <c r="G104" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D105" s="10">
         <v>14</v>
@@ -3994,20 +4058,20 @@
       <c r="E105" s="10">
         <v>17</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="15" t="s">
-        <v>209</v>
+      <c r="F105" s="20"/>
+      <c r="G105" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D106" s="10">
         <v>14</v>
@@ -4015,20 +4079,20 @@
       <c r="E106" s="10">
         <v>17</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="15" t="s">
-        <v>211</v>
+      <c r="F106" s="20"/>
+      <c r="G106" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D107" s="10">
         <v>14</v>
@@ -4036,20 +4100,20 @@
       <c r="E107" s="10">
         <v>17</v>
       </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="15" t="s">
-        <v>213</v>
+      <c r="F107" s="20"/>
+      <c r="G107" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D108" s="10">
         <v>14</v>
@@ -4057,20 +4121,20 @@
       <c r="E108" s="10">
         <v>17</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="15" t="s">
-        <v>215</v>
+      <c r="F108" s="20"/>
+      <c r="G108" s="18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D109" s="10">
         <v>15</v>
@@ -4078,20 +4142,20 @@
       <c r="E109" s="10">
         <v>18</v>
       </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="15" t="s">
-        <v>217</v>
+      <c r="F109" s="20"/>
+      <c r="G109" s="18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D110" s="10">
         <v>15</v>
@@ -4099,20 +4163,20 @@
       <c r="E110" s="10">
         <v>18</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="15" t="s">
-        <v>219</v>
+      <c r="F110" s="20"/>
+      <c r="G110" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D111" s="10">
         <v>14</v>
@@ -4120,20 +4184,20 @@
       <c r="E111" s="10">
         <v>17</v>
       </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="15" t="s">
-        <v>221</v>
+      <c r="F111" s="20"/>
+      <c r="G111" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D112" s="10">
         <v>14</v>
@@ -4141,20 +4205,20 @@
       <c r="E112" s="10">
         <v>17</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="15" t="s">
-        <v>223</v>
+      <c r="F112" s="20"/>
+      <c r="G112" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D113" s="10">
         <v>17</v>
@@ -4162,20 +4226,20 @@
       <c r="E113" s="10">
         <v>22</v>
       </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="15" t="s">
-        <v>225</v>
+      <c r="F113" s="20"/>
+      <c r="G113" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D114" s="10">
         <v>15</v>
@@ -4183,20 +4247,20 @@
       <c r="E114" s="10">
         <v>18</v>
       </c>
-      <c r="F114" s="17"/>
-      <c r="G114" s="15" t="s">
-        <v>227</v>
+      <c r="F114" s="20"/>
+      <c r="G114" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D115" s="10">
         <v>12</v>
@@ -4204,20 +4268,20 @@
       <c r="E115" s="10">
         <v>16</v>
       </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="15" t="s">
-        <v>229</v>
+      <c r="F115" s="20"/>
+      <c r="G115" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D116" s="10">
         <v>15</v>
@@ -4225,20 +4289,20 @@
       <c r="E116" s="10">
         <v>18</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="15" t="s">
-        <v>231</v>
+      <c r="F116" s="20"/>
+      <c r="G116" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D117" s="10">
         <v>15</v>
@@ -4246,20 +4310,20 @@
       <c r="E117" s="10">
         <v>18</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="15" t="s">
-        <v>233</v>
+      <c r="F117" s="20"/>
+      <c r="G117" s="18" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D118" s="10">
         <v>19</v>
@@ -4267,18 +4331,18 @@
       <c r="E118" s="10">
         <v>25</v>
       </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="15"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="18"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D119" s="10">
         <v>14</v>
@@ -4286,20 +4350,20 @@
       <c r="E119" s="10">
         <v>17</v>
       </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="15" t="s">
-        <v>236</v>
+      <c r="F119" s="20"/>
+      <c r="G119" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" s="10">
         <v>14</v>
@@ -4307,20 +4371,20 @@
       <c r="E120" s="10">
         <v>17</v>
       </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="15" t="s">
-        <v>238</v>
+      <c r="F120" s="20"/>
+      <c r="G120" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D121" s="10">
         <v>15</v>
@@ -4328,20 +4392,20 @@
       <c r="E121" s="10">
         <v>18</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="15" t="s">
-        <v>240</v>
+      <c r="F121" s="20"/>
+      <c r="G121" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D122" s="10">
         <v>15</v>
@@ -4349,20 +4413,20 @@
       <c r="E122" s="10">
         <v>18</v>
       </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="15" t="s">
-        <v>242</v>
+      <c r="F122" s="20"/>
+      <c r="G122" s="18" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D123" s="10">
         <v>14</v>
@@ -4370,232 +4434,213 @@
       <c r="E123" s="10">
         <v>17</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="15"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D124" s="10">
-        <v>14</v>
-      </c>
-      <c r="E124" s="16"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="15" t="s">
-        <v>167</v>
+        <v>17</v>
+      </c>
+      <c r="E124" s="19"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D125" s="10">
-        <v>17</v>
-      </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="15" t="s">
-        <v>178</v>
+        <v>15</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D126" s="10">
-        <v>15</v>
-      </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="15" t="s">
-        <v>173</v>
+        <v>18</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="8" t="s">
-        <v>204</v>
+      <c r="A127" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D127" s="10">
-        <v>18</v>
-      </c>
-      <c r="E127" s="16"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="15" t="s">
-        <v>205</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="18"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="26" t="s">
-        <v>176</v>
+      <c r="A128" s="29" t="s">
+        <v>225</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D128" s="10">
+        <v>21</v>
+      </c>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D129" s="10">
         <v>17</v>
       </c>
-      <c r="E128" s="16"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="15"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D129" s="10">
-        <v>21</v>
-      </c>
-      <c r="E129" s="16"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="15"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="18"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="8" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D130" s="10">
-        <v>17</v>
-      </c>
-      <c r="E130" s="16"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="E130" s="19"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="18"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="8" t="s">
-        <v>234</v>
+      <c r="A131" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D131" s="10">
-        <v>21</v>
-      </c>
-      <c r="E131" s="16"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="18" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="26" t="s">
-        <v>174</v>
+      <c r="A132" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D132" s="10">
-        <v>19</v>
-      </c>
-      <c r="E132" s="16"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D133" s="10">
         <v>23</v>
       </c>
-      <c r="E133" s="16"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="15" t="s">
-        <v>192</v>
+      <c r="E132" s="19"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="26"/>
+      <c r="A134" s="29"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="15"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="18"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="26"/>
+      <c r="A135" s="29"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="15"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="18"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="27"/>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="32"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="35"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="30"/>
+      <c r="A137" s="33"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="30"/>
+      <c r="A138" s="33"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="30"/>
+      <c r="A139" s="33"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="30"/>
+      <c r="A140" s="33"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="30"/>
+      <c r="A141" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
+++ b/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="7725"/>
+    <workbookView windowWidth="19200" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="4" r:id="rId1"/>
@@ -811,10 +811,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
     <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -874,11 +874,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,8 +889,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,10 +921,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,7 +938,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,68 +997,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,7 +1036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,13 +1054,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,145 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,6 +1322,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1355,170 +1385,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1531,13 +1531,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1549,7 +1549,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,22 +1558,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,7 +1576,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,10 +1588,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1609,10 +1600,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,7 +1615,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
@@ -1986,8 +1977,8 @@
   <sheetPr/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2018,22 +2009,22 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2053,17 +2044,17 @@
       <c r="E2" s="10">
         <v>22</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2083,17 +2074,17 @@
       <c r="E3" s="10">
         <v>22</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2110,18 +2101,18 @@
       <c r="D4" s="10">
         <v>26</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="21">
         <v>4</v>
       </c>
     </row>
@@ -2139,17 +2130,17 @@
         <v>22</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="21">
         <v>4</v>
       </c>
     </row>
@@ -2167,17 +2158,17 @@
         <v>13</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2195,17 +2186,17 @@
         <v>23</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2223,17 +2214,17 @@
         <v>20</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2250,18 +2241,18 @@
       <c r="D9" s="10">
         <v>26</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2278,18 +2269,18 @@
       <c r="D10" s="10">
         <v>24</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="24">
         <v>2</v>
       </c>
     </row>
@@ -2306,18 +2297,18 @@
       <c r="D11" s="10">
         <v>20</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="24">
         <v>2</v>
       </c>
     </row>
@@ -2334,18 +2325,18 @@
       <c r="D12" s="10">
         <v>20</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="24">
         <v>2</v>
       </c>
     </row>
@@ -2362,18 +2353,18 @@
       <c r="D13" s="10">
         <v>12</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="18" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="24">
         <v>2</v>
       </c>
     </row>
@@ -2388,18 +2379,18 @@
       <c r="D14" s="10">
         <v>28</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="24">
         <v>2</v>
       </c>
     </row>
@@ -2414,12 +2405,12 @@
       <c r="D15" s="10">
         <v>28</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
@@ -2432,9 +2423,9 @@
       <c r="D16" s="10">
         <v>27</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2449,9 +2440,9 @@
       <c r="D17" s="10">
         <v>28</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2466,9 +2457,9 @@
       <c r="D18" s="10">
         <v>25</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2485,9 +2476,9 @@
       <c r="D19" s="10">
         <v>28</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2504,9 +2495,9 @@
       <c r="D20" s="10">
         <v>28</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2523,9 +2514,9 @@
       <c r="D21" s="10">
         <v>21</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="18" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2542,9 +2533,9 @@
       <c r="D22" s="10">
         <v>24</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="18" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2561,9 +2552,9 @@
       <c r="D23" s="10">
         <v>21</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="18" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2580,9 +2571,9 @@
       <c r="D24" s="10">
         <v>18</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="18" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2599,9 +2590,9 @@
       <c r="D25" s="10">
         <v>14</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="18" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2616,11 +2607,11 @@
       <c r="D26" s="10">
         <v>13</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2635,11 +2626,11 @@
       <c r="D27" s="10">
         <v>17</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2654,11 +2645,11 @@
       <c r="D28" s="10">
         <v>19</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2673,11 +2664,11 @@
       <c r="D29" s="10">
         <v>19</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2692,11 +2683,11 @@
       <c r="D30" s="10">
         <v>19</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2711,11 +2702,11 @@
       <c r="D31" s="10">
         <v>20</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2730,11 +2721,11 @@
       <c r="D32" s="10">
         <v>20</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="15" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2749,11 +2740,11 @@
       <c r="D33" s="10">
         <v>20</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2768,11 +2759,11 @@
       <c r="D34" s="10">
         <v>25</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2787,11 +2778,11 @@
       <c r="D35" s="10">
         <v>23</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2808,9 +2799,9 @@
       <c r="D36" s="10">
         <v>13</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="15" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2827,9 +2818,9 @@
       <c r="D37" s="10">
         <v>15</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="18" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="15" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2844,9 +2835,9 @@
       <c r="D38" s="10">
         <v>28</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="18" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2861,9 +2852,9 @@
       <c r="D39" s="10">
         <v>12</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="18"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
@@ -2876,9 +2867,9 @@
       <c r="D40" s="10">
         <v>14</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="18"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
@@ -2893,9 +2884,9 @@
       <c r="D41" s="10">
         <v>18.9</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="18"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
@@ -2910,9 +2901,9 @@
       <c r="D42" s="10">
         <v>28.9</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="18"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
@@ -2925,9 +2916,9 @@
       <c r="D43" s="10">
         <v>12</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="18" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2942,9 +2933,9 @@
       <c r="D44" s="10">
         <v>4</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="18"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
@@ -2957,9 +2948,9 @@
       <c r="D45" s="10">
         <v>9</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="18"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
@@ -2974,9 +2965,9 @@
       <c r="D46" s="10">
         <v>25</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="18"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
@@ -2991,9 +2982,9 @@
       <c r="D47" s="10">
         <v>22</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="18"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" ht="31.5" spans="1:7">
       <c r="A48" s="8" t="s">
@@ -3008,11 +2999,11 @@
       <c r="D48" s="10">
         <v>24</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20" t="s">
+      <c r="E48" s="16"/>
+      <c r="F48" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3029,11 +3020,11 @@
       <c r="D49" s="10">
         <v>42</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20" t="s">
+      <c r="E49" s="16"/>
+      <c r="F49" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3050,11 +3041,11 @@
       <c r="D50" s="10">
         <v>30</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20" t="s">
+      <c r="E50" s="16"/>
+      <c r="F50" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="18"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" ht="31.5" spans="1:7">
       <c r="A51" s="8" t="s">
@@ -3069,11 +3060,11 @@
       <c r="D51" s="10">
         <v>27</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="15" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3090,11 +3081,11 @@
       <c r="D52" s="10">
         <v>16</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3111,53 +3102,53 @@
       <c r="D53" s="10">
         <v>25</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20" t="s">
+      <c r="E53" s="16"/>
+      <c r="F53" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="54" ht="31.5" spans="1:7">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="10">
         <v>16</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55" ht="47.25" spans="1:7">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="10">
         <v>19</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3172,9 +3163,9 @@
       <c r="D56" s="10">
         <v>8</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="18" t="s">
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3189,9 +3180,9 @@
       <c r="D57" s="10">
         <v>8</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="18" t="s">
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="15" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3206,9 +3197,9 @@
       <c r="D58" s="10">
         <v>4</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="18" t="s">
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="15" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3223,9 +3214,9 @@
       <c r="D59" s="10">
         <v>12</v>
       </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="18"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8" t="s">
@@ -3238,9 +3229,9 @@
       <c r="D60" s="10">
         <v>12</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="18"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8" t="s">
@@ -3253,9 +3244,9 @@
       <c r="D61" s="10">
         <v>8</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="18"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8" t="s">
@@ -3268,9 +3259,9 @@
       <c r="D62" s="10">
         <v>8</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="18"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="s">
@@ -3283,9 +3274,9 @@
       <c r="D63" s="10">
         <v>10</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="18"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8" t="s">
@@ -3298,9 +3289,9 @@
       <c r="D64" s="10">
         <v>8</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="18"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8" t="s">
@@ -3313,9 +3304,9 @@
       <c r="D65" s="10">
         <v>8</v>
       </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="18"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8" t="s">
@@ -3328,9 +3319,9 @@
       <c r="D66" s="10">
         <v>4.5</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="18" t="s">
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="15" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3345,9 +3336,9 @@
       <c r="D67" s="10">
         <v>5</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="18"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8" t="s">
@@ -3360,9 +3351,9 @@
       <c r="D68" s="10">
         <v>9</v>
       </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="18"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="8" t="s">
@@ -3377,9 +3368,9 @@
       <c r="D69" s="10">
         <v>8</v>
       </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="18"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="s">
@@ -3394,9 +3385,9 @@
       <c r="D70" s="10">
         <v>5.5</v>
       </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="18"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8" t="s">
@@ -3411,9 +3402,9 @@
       <c r="D71" s="10">
         <v>5</v>
       </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="18"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="8" t="s">
@@ -3426,9 +3417,9 @@
       <c r="D72" s="10">
         <v>12</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="18"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8" t="s">
@@ -3441,9 +3432,9 @@
       <c r="D73" s="10">
         <v>10</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="18"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8" t="s">
@@ -3456,9 +3447,9 @@
       <c r="D74" s="10">
         <v>4</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="18"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8" t="s">
@@ -3471,9 +3462,9 @@
       <c r="D75" s="10">
         <v>8</v>
       </c>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="18"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8" t="s">
@@ -3486,9 +3477,9 @@
       <c r="D76" s="10">
         <v>8</v>
       </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="18"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8" t="s">
@@ -3501,9 +3492,9 @@
       <c r="D77" s="10">
         <v>7</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="18"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8" t="s">
@@ -3516,9 +3507,9 @@
       <c r="D78" s="10">
         <v>15</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="18"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8" t="s">
@@ -3531,9 +3522,9 @@
       <c r="D79" s="10">
         <v>8</v>
       </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="18"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8" t="s">
@@ -3546,9 +3537,9 @@
       <c r="D80" s="10">
         <v>6.5</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="18"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
@@ -3566,8 +3557,8 @@
       <c r="E81" s="10">
         <v>17</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="18" t="s">
+      <c r="F81" s="17"/>
+      <c r="G81" s="15" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3587,8 +3578,8 @@
       <c r="E82" s="10">
         <v>17</v>
       </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="18" t="s">
+      <c r="F82" s="17"/>
+      <c r="G82" s="15" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3608,8 +3599,8 @@
       <c r="E83" s="10">
         <v>18</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="18" t="s">
+      <c r="F83" s="17"/>
+      <c r="G83" s="15" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3629,8 +3620,8 @@
       <c r="E84" s="10">
         <v>18</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="18" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3650,8 +3641,8 @@
       <c r="E85" s="10">
         <v>23</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="18" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3671,8 +3662,8 @@
       <c r="E86" s="10">
         <v>21</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="18"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
@@ -3690,8 +3681,8 @@
       <c r="E87" s="10">
         <v>17</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="17"/>
+      <c r="G87" s="15" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3711,8 +3702,8 @@
       <c r="E88" s="10">
         <v>17</v>
       </c>
-      <c r="F88" s="20"/>
-      <c r="G88" s="18" t="s">
+      <c r="F88" s="17"/>
+      <c r="G88" s="15" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3732,8 +3723,8 @@
       <c r="E89" s="10">
         <v>23</v>
       </c>
-      <c r="F89" s="20"/>
-      <c r="G89" s="18" t="s">
+      <c r="F89" s="17"/>
+      <c r="G89" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3753,8 +3744,8 @@
       <c r="E90" s="10">
         <v>25</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="18"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
@@ -3772,8 +3763,8 @@
       <c r="E91" s="10">
         <v>25</v>
       </c>
-      <c r="F91" s="20"/>
-      <c r="G91" s="18"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
@@ -3791,8 +3782,8 @@
       <c r="E92" s="10">
         <v>18</v>
       </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="18" t="s">
+      <c r="F92" s="17"/>
+      <c r="G92" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3812,8 +3803,8 @@
       <c r="E93" s="10">
         <v>18</v>
       </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="18" t="s">
+      <c r="F93" s="17"/>
+      <c r="G93" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3833,8 +3824,8 @@
       <c r="E94" s="10">
         <v>18</v>
       </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="18" t="s">
+      <c r="F94" s="17"/>
+      <c r="G94" s="15" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3854,8 +3845,8 @@
       <c r="E95" s="10">
         <v>15</v>
       </c>
-      <c r="F95" s="20"/>
-      <c r="G95" s="18" t="s">
+      <c r="F95" s="17"/>
+      <c r="G95" s="15" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3875,8 +3866,8 @@
       <c r="E96" s="10">
         <v>18</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="18" t="s">
+      <c r="F96" s="17"/>
+      <c r="G96" s="15" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3896,8 +3887,8 @@
       <c r="E97" s="10">
         <v>23</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="18" t="s">
+      <c r="F97" s="17"/>
+      <c r="G97" s="15" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3917,8 +3908,8 @@
       <c r="E98" s="10">
         <v>17</v>
       </c>
-      <c r="F98" s="20"/>
-      <c r="G98" s="18"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
@@ -3936,8 +3927,8 @@
       <c r="E99" s="10">
         <v>18</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="18" t="s">
+      <c r="F99" s="17"/>
+      <c r="G99" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3957,8 +3948,8 @@
       <c r="E100" s="10">
         <v>17</v>
       </c>
-      <c r="F100" s="20"/>
-      <c r="G100" s="18"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
@@ -3976,8 +3967,8 @@
       <c r="E101" s="10">
         <v>19</v>
       </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="18"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
@@ -3995,8 +3986,8 @@
       <c r="E102" s="10">
         <v>19</v>
       </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="18" t="s">
+      <c r="F102" s="17"/>
+      <c r="G102" s="15" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4016,8 +4007,8 @@
       <c r="E103" s="10">
         <v>18</v>
       </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="18" t="s">
+      <c r="F103" s="17"/>
+      <c r="G103" s="15" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4037,8 +4028,8 @@
       <c r="E104" s="10">
         <v>17</v>
       </c>
-      <c r="F104" s="20"/>
-      <c r="G104" s="18" t="s">
+      <c r="F104" s="17"/>
+      <c r="G104" s="15" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4058,8 +4049,8 @@
       <c r="E105" s="10">
         <v>17</v>
       </c>
-      <c r="F105" s="20"/>
-      <c r="G105" s="18" t="s">
+      <c r="F105" s="17"/>
+      <c r="G105" s="15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4079,8 +4070,8 @@
       <c r="E106" s="10">
         <v>17</v>
       </c>
-      <c r="F106" s="20"/>
-      <c r="G106" s="18" t="s">
+      <c r="F106" s="17"/>
+      <c r="G106" s="15" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4100,8 +4091,8 @@
       <c r="E107" s="10">
         <v>17</v>
       </c>
-      <c r="F107" s="20"/>
-      <c r="G107" s="18" t="s">
+      <c r="F107" s="17"/>
+      <c r="G107" s="15" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4121,8 +4112,8 @@
       <c r="E108" s="10">
         <v>17</v>
       </c>
-      <c r="F108" s="20"/>
-      <c r="G108" s="18" t="s">
+      <c r="F108" s="17"/>
+      <c r="G108" s="15" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4142,8 +4133,8 @@
       <c r="E109" s="10">
         <v>18</v>
       </c>
-      <c r="F109" s="20"/>
-      <c r="G109" s="18" t="s">
+      <c r="F109" s="17"/>
+      <c r="G109" s="15" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4163,8 +4154,8 @@
       <c r="E110" s="10">
         <v>18</v>
       </c>
-      <c r="F110" s="20"/>
-      <c r="G110" s="18" t="s">
+      <c r="F110" s="17"/>
+      <c r="G110" s="15" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4184,8 +4175,8 @@
       <c r="E111" s="10">
         <v>17</v>
       </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="18" t="s">
+      <c r="F111" s="17"/>
+      <c r="G111" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4205,8 +4196,8 @@
       <c r="E112" s="10">
         <v>17</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="18" t="s">
+      <c r="F112" s="17"/>
+      <c r="G112" s="15" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4226,8 +4217,8 @@
       <c r="E113" s="10">
         <v>22</v>
       </c>
-      <c r="F113" s="20"/>
-      <c r="G113" s="18" t="s">
+      <c r="F113" s="17"/>
+      <c r="G113" s="15" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4247,8 +4238,8 @@
       <c r="E114" s="10">
         <v>18</v>
       </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="18" t="s">
+      <c r="F114" s="17"/>
+      <c r="G114" s="15" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4268,8 +4259,8 @@
       <c r="E115" s="10">
         <v>16</v>
       </c>
-      <c r="F115" s="20"/>
-      <c r="G115" s="18" t="s">
+      <c r="F115" s="17"/>
+      <c r="G115" s="15" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4289,8 +4280,8 @@
       <c r="E116" s="10">
         <v>18</v>
       </c>
-      <c r="F116" s="20"/>
-      <c r="G116" s="18" t="s">
+      <c r="F116" s="17"/>
+      <c r="G116" s="15" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4310,8 +4301,8 @@
       <c r="E117" s="10">
         <v>18</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="18" t="s">
+      <c r="F117" s="17"/>
+      <c r="G117" s="15" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4331,8 +4322,8 @@
       <c r="E118" s="10">
         <v>25</v>
       </c>
-      <c r="F118" s="20"/>
-      <c r="G118" s="18"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
@@ -4350,8 +4341,8 @@
       <c r="E119" s="10">
         <v>17</v>
       </c>
-      <c r="F119" s="20"/>
-      <c r="G119" s="18" t="s">
+      <c r="F119" s="17"/>
+      <c r="G119" s="15" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4371,8 +4362,8 @@
       <c r="E120" s="10">
         <v>17</v>
       </c>
-      <c r="F120" s="20"/>
-      <c r="G120" s="18" t="s">
+      <c r="F120" s="17"/>
+      <c r="G120" s="15" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4392,8 +4383,8 @@
       <c r="E121" s="10">
         <v>18</v>
       </c>
-      <c r="F121" s="20"/>
-      <c r="G121" s="18" t="s">
+      <c r="F121" s="17"/>
+      <c r="G121" s="15" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4413,8 +4404,8 @@
       <c r="E122" s="10">
         <v>18</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="18" t="s">
+      <c r="F122" s="17"/>
+      <c r="G122" s="15" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4434,8 +4425,8 @@
       <c r="E123" s="10">
         <v>17</v>
       </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="18"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
@@ -4450,9 +4441,9 @@
       <c r="D124" s="10">
         <v>17</v>
       </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="18" t="s">
+      <c r="E124" s="16"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="15" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4469,9 +4460,9 @@
       <c r="D125" s="10">
         <v>15</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="18" t="s">
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4488,14 +4479,14 @@
       <c r="D126" s="10">
         <v>18</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="18" t="s">
+      <c r="E126" s="16"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="15" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="26" t="s">
         <v>177</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -4507,12 +4498,12 @@
       <c r="D127" s="10">
         <v>17</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="18"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -4524,9 +4515,9 @@
       <c r="D128" s="10">
         <v>21</v>
       </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="18"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="8" t="s">
@@ -4541,9 +4532,9 @@
       <c r="D129" s="10">
         <v>17</v>
       </c>
-      <c r="E129" s="19"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="18"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="8" t="s">
@@ -4558,12 +4549,12 @@
       <c r="D130" s="10">
         <v>21</v>
       </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="18"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="26" t="s">
         <v>175</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -4575,14 +4566,14 @@
       <c r="D131" s="10">
         <v>19</v>
       </c>
-      <c r="E131" s="19"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="18" t="s">
+      <c r="E131" s="16"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="26" t="s">
         <v>192</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -4594,53 +4585,53 @@
       <c r="D132" s="10">
         <v>23</v>
       </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="18" t="s">
+      <c r="E132" s="16"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="29"/>
+      <c r="A134" s="26"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="18"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="29"/>
+      <c r="A135" s="26"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="18"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="30"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="35"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="32"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="33"/>
+      <c r="A137" s="30"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="33"/>
+      <c r="A138" s="30"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="33"/>
+      <c r="A139" s="30"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="33"/>
+      <c r="A140" s="30"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="33"/>
+      <c r="A141" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
+++ b/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="247">
   <si>
     <t>NOME</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>IMAGEM</t>
+  </si>
+  <si>
+    <t>DESCRIÇÂO</t>
   </si>
   <si>
     <t>ADICIONAIS</t>
@@ -811,10 +814,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -826,7 +829,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -841,7 +844,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -867,15 +870,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,16 +901,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -913,14 +924,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -928,9 +931,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,46 +940,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -996,10 +961,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,13 +1033,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1063,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,79 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,67 +1213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,54 +1291,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1368,11 +1323,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,143 +1379,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1537,7 +1540,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1549,7 +1552,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,13 +1561,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,9 +1577,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,10 +1591,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1600,10 +1603,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,7 +1618,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
@@ -1625,7 +1628,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1975,28 +1978,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.2518518518519" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.7777777777778" style="2" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.8740740740741" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.1259259259259" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.2518518518519" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.7481481481481" style="4" customWidth="1"/>
-    <col min="7" max="7" width="49.5037037037037" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="22.7481481481481" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.3777777777778" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.6222222222222" style="5" customWidth="1"/>
+    <col min="7" max="7" width="49.5037037037037" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="22.7481481481481" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.3777777777778" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.6222222222222" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2015,28 +2019,31 @@
       <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>1</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="10">
         <v>17</v>
@@ -2046,27 +2053,27 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="10">
         <v>17</v>
@@ -2076,27 +2083,27 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="20">
+        <v>14</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" ht="31.5" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10">
         <v>26</v>
@@ -2104,27 +2111,27 @@
       <c r="E4" s="16"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="10">
         <v>22</v>
@@ -2132,27 +2139,27 @@
       <c r="E5" s="10"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="21">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10">
         <v>13</v>
@@ -2160,27 +2167,27 @@
       <c r="E6" s="10"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10">
         <v>23</v>
@@ -2188,27 +2195,27 @@
       <c r="E7" s="10"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="24">
+        <v>23</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="10">
         <v>20</v>
@@ -2216,27 +2223,27 @@
       <c r="E8" s="10"/>
       <c r="F8" s="17"/>
       <c r="G8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="24">
+        <v>23</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="10">
         <v>26</v>
@@ -2244,27 +2251,27 @@
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
       <c r="G9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="24">
+        <v>23</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="10">
         <v>24</v>
@@ -2272,27 +2279,27 @@
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
       <c r="G10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="10">
         <v>20</v>
@@ -2300,27 +2307,27 @@
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
       <c r="G11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="24">
+        <v>23</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="10">
         <v>20</v>
@@ -2328,27 +2335,27 @@
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
       <c r="G12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="24">
+      <c r="J12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="10">
         <v>12</v>
@@ -2356,24 +2363,24 @@
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="24">
+      <c r="J13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10">
@@ -2382,24 +2389,24 @@
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
       <c r="G14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10">
@@ -2408,16 +2415,16 @@
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10">
@@ -2426,15 +2433,15 @@
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10">
@@ -2443,15 +2450,15 @@
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10">
@@ -2460,18 +2467,18 @@
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="10">
         <v>28</v>
@@ -2479,18 +2486,18 @@
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="10">
         <v>28</v>
@@ -2498,18 +2505,18 @@
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="10">
         <v>21</v>
@@ -2517,18 +2524,18 @@
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
       <c r="G21" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="10">
         <v>24</v>
@@ -2536,18 +2543,18 @@
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="10">
         <v>21</v>
@@ -2555,18 +2562,18 @@
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="10">
         <v>18</v>
@@ -2574,18 +2581,18 @@
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="10">
         <v>14</v>
@@ -2593,15 +2600,15 @@
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
       <c r="G25" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10">
@@ -2609,18 +2616,18 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10">
@@ -2628,18 +2635,18 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" ht="31.5" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10">
@@ -2647,18 +2654,18 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10">
@@ -2666,18 +2673,18 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" ht="31.5" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10">
@@ -2685,18 +2692,18 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" ht="31.5" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10">
@@ -2704,18 +2711,18 @@
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" ht="31.5" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10">
@@ -2723,18 +2730,18 @@
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" ht="31.5" spans="1:7">
       <c r="A33" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10">
@@ -2742,18 +2749,18 @@
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" ht="47.25" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10">
@@ -2761,18 +2768,18 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="47.25" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10">
@@ -2780,21 +2787,21 @@
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" ht="31.5" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="10">
         <v>13</v>
@@ -2802,18 +2809,18 @@
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" ht="31.5" spans="1:7">
+      <c r="A37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="10">
         <v>15</v>
@@ -2821,15 +2828,15 @@
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" ht="31.5" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10">
@@ -2838,15 +2845,15 @@
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="10">
@@ -2858,10 +2865,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10">
@@ -2873,13 +2880,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="10">
         <v>18.9</v>
@@ -2890,13 +2897,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="C42" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="10">
         <v>28.9</v>
@@ -2907,10 +2914,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10">
@@ -2919,15 +2926,15 @@
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="10">
@@ -2939,10 +2946,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="10">
@@ -2954,13 +2961,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D46" s="10">
         <v>25</v>
@@ -2971,13 +2978,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="D47" s="10">
         <v>22</v>
@@ -2988,176 +2995,176 @@
     </row>
     <row r="48" ht="31.5" spans="1:7">
       <c r="A48" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D48" s="10">
         <v>24</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" ht="47.25" spans="1:7">
       <c r="A49" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" s="10">
         <v>42</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" ht="31.5" spans="1:7">
       <c r="A50" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" s="10">
         <v>30</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" ht="31.5" spans="1:7">
+    <row r="51" ht="47.25" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" s="10">
         <v>27</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" ht="31.5" spans="1:7">
       <c r="A52" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D52" s="10">
         <v>16</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" ht="31.5" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" ht="63" spans="1:7">
       <c r="A53" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" s="10">
         <v>25</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" ht="31.5" spans="1:7">
       <c r="A54" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" s="10">
         <v>16</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" ht="47.25" spans="1:7">
       <c r="A55" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55" s="10">
         <v>19</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="10">
@@ -3166,15 +3173,15 @@
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
       <c r="G56" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="10">
@@ -3183,15 +3190,15 @@
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="10">
@@ -3200,15 +3207,15 @@
       <c r="E58" s="16"/>
       <c r="F58" s="17"/>
       <c r="G58" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="10">
@@ -3220,10 +3227,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="10">
@@ -3235,10 +3242,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="10">
@@ -3250,10 +3257,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="10">
@@ -3265,10 +3272,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="10">
@@ -3280,10 +3287,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="10">
@@ -3295,10 +3302,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="10">
@@ -3310,10 +3317,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="10">
@@ -3322,15 +3329,15 @@
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
       <c r="G66" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="10">
@@ -3342,10 +3349,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="10">
@@ -3357,13 +3364,13 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="C69" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69" s="10">
         <v>8</v>
@@ -3374,13 +3381,13 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="10">
         <v>5.5</v>
@@ -3391,13 +3398,13 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D71" s="10">
         <v>5</v>
@@ -3408,10 +3415,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="10">
@@ -3423,10 +3430,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="10">
@@ -3438,10 +3445,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="10">
@@ -3453,10 +3460,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="10">
@@ -3468,10 +3475,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="10">
@@ -3483,10 +3490,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="10">
@@ -3498,10 +3505,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="10">
@@ -3513,10 +3520,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="10">
@@ -3528,10 +3535,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="10">
@@ -3543,13 +3550,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D81" s="10">
         <v>14</v>
@@ -3559,18 +3566,18 @@
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D82" s="10">
         <v>14</v>
@@ -3580,18 +3587,18 @@
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D83" s="10">
         <v>15</v>
@@ -3601,18 +3608,18 @@
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D84" s="10">
         <v>15</v>
@@ -3622,18 +3629,18 @@
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D85" s="10">
         <v>19</v>
@@ -3643,18 +3650,18 @@
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D86" s="10">
         <v>17</v>
@@ -3667,13 +3674,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D87" s="10">
         <v>14</v>
@@ -3683,18 +3690,18 @@
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D88" s="10">
         <v>14</v>
@@ -3704,18 +3711,18 @@
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D89" s="10">
         <v>19</v>
@@ -3725,18 +3732,18 @@
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90" s="10">
         <v>19</v>
@@ -3749,13 +3756,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D91" s="10">
         <v>19</v>
@@ -3768,13 +3775,13 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D92" s="10">
         <v>15</v>
@@ -3784,18 +3791,18 @@
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D93" s="10">
         <v>15</v>
@@ -3805,18 +3812,18 @@
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D94" s="10">
         <v>15</v>
@@ -3826,18 +3833,18 @@
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D95" s="10">
         <v>12</v>
@@ -3847,18 +3854,18 @@
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D96" s="10">
         <v>15</v>
@@ -3868,18 +3875,18 @@
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D97" s="10">
         <v>19</v>
@@ -3889,18 +3896,18 @@
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D98" s="10">
         <v>14</v>
@@ -3913,13 +3920,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D99" s="10">
         <v>15</v>
@@ -3929,18 +3936,18 @@
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D100" s="10">
         <v>14</v>
@@ -3953,13 +3960,13 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D101" s="10">
         <v>16</v>
@@ -3972,13 +3979,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D102" s="10">
         <v>16</v>
@@ -3988,18 +3995,18 @@
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D103" s="10">
         <v>15</v>
@@ -4009,18 +4016,18 @@
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D104" s="10">
         <v>14</v>
@@ -4030,18 +4037,18 @@
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D105" s="10">
         <v>14</v>
@@ -4051,18 +4058,18 @@
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D106" s="10">
         <v>14</v>
@@ -4072,18 +4079,18 @@
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D107" s="10">
         <v>14</v>
@@ -4093,18 +4100,18 @@
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D108" s="10">
         <v>14</v>
@@ -4114,18 +4121,18 @@
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D109" s="10">
         <v>15</v>
@@ -4135,18 +4142,18 @@
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D110" s="10">
         <v>15</v>
@@ -4156,18 +4163,18 @@
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D111" s="10">
         <v>14</v>
@@ -4177,18 +4184,18 @@
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D112" s="10">
         <v>14</v>
@@ -4198,18 +4205,18 @@
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D113" s="10">
         <v>17</v>
@@ -4219,18 +4226,18 @@
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D114" s="10">
         <v>15</v>
@@ -4240,18 +4247,18 @@
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" ht="31.5" spans="1:7">
       <c r="A115" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D115" s="10">
         <v>12</v>
@@ -4261,18 +4268,18 @@
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D116" s="10">
         <v>15</v>
@@ -4282,18 +4289,18 @@
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D117" s="10">
         <v>15</v>
@@ -4303,18 +4310,18 @@
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D118" s="10">
         <v>19</v>
@@ -4327,13 +4334,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D119" s="10">
         <v>14</v>
@@ -4343,18 +4350,18 @@
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D120" s="10">
         <v>14</v>
@@ -4364,18 +4371,18 @@
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D121" s="10">
         <v>15</v>
@@ -4385,18 +4392,18 @@
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D122" s="10">
         <v>15</v>
@@ -4406,18 +4413,18 @@
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D123" s="10">
         <v>14</v>
@@ -4430,13 +4437,13 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D124" s="10">
         <v>17</v>
@@ -4444,18 +4451,18 @@
       <c r="E124" s="16"/>
       <c r="F124" s="17"/>
       <c r="G124" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D125" s="10">
         <v>15</v>
@@ -4463,18 +4470,18 @@
       <c r="E125" s="16"/>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D126" s="10">
         <v>18</v>
@@ -4482,18 +4489,18 @@
       <c r="E126" s="16"/>
       <c r="F126" s="17"/>
       <c r="G126" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D127" s="10">
         <v>17</v>
@@ -4504,13 +4511,13 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D128" s="10">
         <v>21</v>
@@ -4521,13 +4528,13 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D129" s="10">
         <v>17</v>
@@ -4538,13 +4545,13 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D130" s="10">
         <v>21</v>
@@ -4555,13 +4562,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D131" s="10">
         <v>19</v>
@@ -4569,18 +4576,18 @@
       <c r="E131" s="16"/>
       <c r="F131" s="17"/>
       <c r="G131" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D132" s="10">
         <v>23</v>
@@ -4588,7 +4595,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="17"/>
       <c r="G132" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:7">

--- a/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
+++ b/kyogre_getx_lanchonete/lib/repository/citta/cardapio_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7725"/>
+    <workbookView windowWidth="19140" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="4" r:id="rId1"/>
@@ -815,10 +815,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -862,9 +862,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,7 +886,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,7 +969,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,93 +998,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1033,7 +1033,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,55 +1075,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,19 +1111,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,13 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,37 +1159,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,19 +1207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,17 +1306,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,7 +1319,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1345,13 +1339,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1382,155 +1380,157 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1573,7 +1573,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,10 +1609,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,7 +1621,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1981,7 +1981,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
